--- a/ALL ACTIVE 2.xlsx
+++ b/ALL ACTIVE 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://logicaratio-my.sharepoint.com/personal/sahartman_logicaratio_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ccrowson/Development/dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{501B6E72-38A9-4B4E-8BC3-DA5099D86B33}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF06FC9-B9A4-9644-B9C5-CADC5877B3FF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35980" yWindow="-5140" windowWidth="34280" windowHeight="20200" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="34280" windowHeight="20200" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="2" r:id="rId1"/>
@@ -23,11 +23,11 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2018'!$1:$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ACTIVE!$1:$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'April 2019'!$1:$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'FEB 2019'!$1:$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'JAN 2019'!$1:$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'MARCH 2019'!$A$1:$O$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ACTIVE!$1:$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'April 2019'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">ACTIVE!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -3941,10 +3941,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="165" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4313,7 +4314,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4726,9 +4727,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="10" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4745,6 +4743,24 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5064,29 +5080,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20A2B459-0E71-4437-845F-AA28A7865313}">
   <dimension ref="A1:P130"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{DCE5F6F5-0FA5-5798-B63C-C645D6117335}">
-      <pane ySplit="1" topLeftCell="C61" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="11.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" style="2"/>
+    <col min="7" max="7" width="11.5" style="3" customWidth="1"/>
     <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" style="3" customWidth="1"/>
     <col min="11" max="11" width="11" style="3" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="3"/>
+    <col min="12" max="12" width="11.33203125" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="5" customFormat="1" ht="15.95">
+    <row r="1" spans="1:15" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -5124,7 +5140,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="48">
+    <row r="2" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>41956</v>
       </c>
@@ -5156,7 +5172,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="32.1">
+    <row r="3" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43347</v>
       </c>
@@ -5194,7 +5210,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="32.1">
+    <row r="4" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43353</v>
       </c>
@@ -5229,7 +5245,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="32.1">
+    <row r="5" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43390</v>
       </c>
@@ -5264,7 +5280,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="32.1">
+    <row r="6" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43395</v>
       </c>
@@ -5293,7 +5309,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="32.1">
+    <row r="7" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43396</v>
       </c>
@@ -5328,7 +5344,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.95">
+    <row r="8" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43402</v>
       </c>
@@ -5357,7 +5373,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="32.1">
+    <row r="9" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43402</v>
       </c>
@@ -5383,7 +5399,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="32.1">
+    <row r="10" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43402</v>
       </c>
@@ -5415,7 +5431,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="63.95">
+    <row r="11" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43402</v>
       </c>
@@ -5450,7 +5466,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="32.1">
+    <row r="12" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43402</v>
       </c>
@@ -5482,7 +5498,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="32.1">
+    <row r="13" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43403</v>
       </c>
@@ -5514,7 +5530,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="32.1">
+    <row r="14" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43403</v>
       </c>
@@ -5543,7 +5559,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="32.1">
+    <row r="15" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43403</v>
       </c>
@@ -5572,7 +5588,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="32.1">
+    <row r="16" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43403</v>
       </c>
@@ -5604,7 +5620,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="32.1">
+    <row r="17" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43404</v>
       </c>
@@ -5633,7 +5649,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="48">
+    <row r="18" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43404</v>
       </c>
@@ -5668,7 +5684,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="32.1">
+    <row r="19" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43404</v>
       </c>
@@ -5703,7 +5719,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="32.1">
+    <row r="20" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43404</v>
       </c>
@@ -5735,7 +5751,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="32.1">
+    <row r="21" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43404</v>
       </c>
@@ -5764,7 +5780,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="32.1">
+    <row r="22" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43404</v>
       </c>
@@ -5796,7 +5812,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="32.1">
+    <row r="23" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43404</v>
       </c>
@@ -5831,7 +5847,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="32.1">
+    <row r="24" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43405</v>
       </c>
@@ -5857,7 +5873,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="48">
+    <row r="25" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43405</v>
       </c>
@@ -5895,7 +5911,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="32.1">
+    <row r="26" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43405</v>
       </c>
@@ -5921,7 +5937,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="32.1">
+    <row r="27" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43406</v>
       </c>
@@ -5959,7 +5975,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="32.1">
+    <row r="28" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43406</v>
       </c>
@@ -5994,7 +6010,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="32.1">
+    <row r="29" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43406</v>
       </c>
@@ -6026,7 +6042,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="32.1">
+    <row r="30" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43406</v>
       </c>
@@ -6058,7 +6074,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="32.1">
+    <row r="31" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43406</v>
       </c>
@@ -6093,7 +6109,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="32.1">
+    <row r="32" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43406</v>
       </c>
@@ -6128,7 +6144,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="32.1">
+    <row r="33" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>43409</v>
       </c>
@@ -6166,7 +6182,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="32.1">
+    <row r="34" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>43409</v>
       </c>
@@ -6198,7 +6214,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="32.1">
+    <row r="35" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43409</v>
       </c>
@@ -6227,7 +6243,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="63.95">
+    <row r="36" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>43409</v>
       </c>
@@ -6259,7 +6275,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="32.1">
+    <row r="37" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>43409</v>
       </c>
@@ -6294,7 +6310,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="48">
+    <row r="38" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>43411</v>
       </c>
@@ -6329,7 +6345,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="32.1">
+    <row r="39" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>43411</v>
       </c>
@@ -6364,7 +6380,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="32.1">
+    <row r="40" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>43411</v>
       </c>
@@ -6396,7 +6412,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="32.1">
+    <row r="41" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>43413</v>
       </c>
@@ -6428,7 +6444,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="32.1">
+    <row r="42" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>43413</v>
       </c>
@@ -6460,7 +6476,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="63.95">
+    <row r="43" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>43416</v>
       </c>
@@ -6501,7 +6517,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="63.95">
+    <row r="44" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43416</v>
       </c>
@@ -6536,7 +6552,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="63.95">
+    <row r="45" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43416</v>
       </c>
@@ -6571,7 +6587,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="96">
+    <row r="46" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>43416</v>
       </c>
@@ -6606,7 +6622,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="32.1">
+    <row r="47" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>43417</v>
       </c>
@@ -6641,7 +6657,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="15.95">
+    <row r="48" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>43417</v>
       </c>
@@ -6670,7 +6686,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="32.1">
+    <row r="49" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>43417</v>
       </c>
@@ -6705,7 +6721,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="15.95">
+    <row r="50" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>43417</v>
       </c>
@@ -6737,7 +6753,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="32.1">
+    <row r="51" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>43418</v>
       </c>
@@ -6772,7 +6788,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="32.1">
+    <row r="52" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>43418</v>
       </c>
@@ -6807,7 +6823,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="32.1">
+    <row r="53" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>43418</v>
       </c>
@@ -6839,7 +6855,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="32.1">
+    <row r="54" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>43418</v>
       </c>
@@ -6871,7 +6887,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="32.1">
+    <row r="55" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>43418</v>
       </c>
@@ -6906,7 +6922,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="32.1">
+    <row r="56" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>43419</v>
       </c>
@@ -6941,7 +6957,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="32.1">
+    <row r="57" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>43419</v>
       </c>
@@ -6976,7 +6992,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="32.1">
+    <row r="58" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>43419</v>
       </c>
@@ -7011,7 +7027,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="32.1">
+    <row r="59" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>43419</v>
       </c>
@@ -7046,7 +7062,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="32.1">
+    <row r="60" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>43419</v>
       </c>
@@ -7081,7 +7097,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="409.6">
+    <row r="61" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>43419</v>
       </c>
@@ -7113,7 +7129,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="32.1">
+    <row r="62" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>43420</v>
       </c>
@@ -7145,7 +7161,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="32.1">
+    <row r="63" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>43420</v>
       </c>
@@ -7171,7 +7187,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="32.1">
+    <row r="64" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>43423</v>
       </c>
@@ -7203,7 +7219,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="32.1">
+    <row r="65" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>43423</v>
       </c>
@@ -7241,7 +7257,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="32.1">
+    <row r="66" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>43424</v>
       </c>
@@ -7270,7 +7286,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="32.1">
+    <row r="67" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>43424</v>
       </c>
@@ -7305,7 +7321,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="32.1">
+    <row r="68" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>43424</v>
       </c>
@@ -7340,7 +7356,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="32.1">
+    <row r="69" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>43424</v>
       </c>
@@ -7378,7 +7394,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="32.1">
+    <row r="70" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>43424</v>
       </c>
@@ -7407,7 +7423,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="32.1">
+    <row r="71" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>43424</v>
       </c>
@@ -7439,7 +7455,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="32.1">
+    <row r="72" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>43424</v>
       </c>
@@ -7474,7 +7490,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="32.1">
+    <row r="73" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>43424</v>
       </c>
@@ -7509,7 +7525,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="32.1">
+    <row r="74" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>43424</v>
       </c>
@@ -7544,7 +7560,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="32.1">
+    <row r="75" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>43424</v>
       </c>
@@ -7582,7 +7598,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="32.1">
+    <row r="76" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>43424</v>
       </c>
@@ -7617,7 +7633,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="32.1">
+    <row r="77" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>43424</v>
       </c>
@@ -7652,7 +7668,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="32.1">
+    <row r="78" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>43425</v>
       </c>
@@ -7684,7 +7700,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="32.1">
+    <row r="79" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>43425</v>
       </c>
@@ -7719,7 +7735,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="32.1">
+    <row r="80" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>43430</v>
       </c>
@@ -7748,7 +7764,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="63.95">
+    <row r="81" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>43430</v>
       </c>
@@ -7780,7 +7796,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="32.1">
+    <row r="82" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>43430</v>
       </c>
@@ -7815,7 +7831,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="32.1">
+    <row r="83" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>43430</v>
       </c>
@@ -7847,7 +7863,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="32.1">
+    <row r="84" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>43430</v>
       </c>
@@ -7879,7 +7895,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="32.1">
+    <row r="85" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>43431</v>
       </c>
@@ -7908,7 +7924,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="48">
+    <row r="86" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>43431</v>
       </c>
@@ -7940,7 +7956,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="63.95">
+    <row r="87" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>43432</v>
       </c>
@@ -7975,7 +7991,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="48">
+    <row r="88" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>43432</v>
       </c>
@@ -8010,7 +8026,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="272.10000000000002">
+    <row r="89" spans="1:15" ht="272" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>43432</v>
       </c>
@@ -8048,7 +8064,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="32.1">
+    <row r="90" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>43433</v>
       </c>
@@ -8086,7 +8102,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="32.1">
+    <row r="91" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>43433</v>
       </c>
@@ -8118,7 +8134,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="32.1">
+    <row r="92" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>43433</v>
       </c>
@@ -8153,7 +8169,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="32.1">
+    <row r="93" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>43433</v>
       </c>
@@ -8185,7 +8201,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="32.1">
+    <row r="94" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>43434</v>
       </c>
@@ -8217,7 +8233,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="32.1">
+    <row r="95" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>43434</v>
       </c>
@@ -8249,7 +8265,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="63.95">
+    <row r="96" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>43434</v>
       </c>
@@ -8281,7 +8297,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="48">
+    <row r="97" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>43434</v>
       </c>
@@ -8310,7 +8326,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="32.1">
+    <row r="98" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>43434</v>
       </c>
@@ -8348,7 +8364,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="32.1">
+    <row r="99" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>43437</v>
       </c>
@@ -8383,7 +8399,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="32.1">
+    <row r="100" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>43438</v>
       </c>
@@ -8415,7 +8431,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="63.95">
+    <row r="101" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>43438</v>
       </c>
@@ -8447,7 +8463,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="32.1">
+    <row r="102" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>43438</v>
       </c>
@@ -8479,7 +8495,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="80.099999999999994">
+    <row r="103" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>43439</v>
       </c>
@@ -8508,7 +8524,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="48">
+    <row r="104" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>43439</v>
       </c>
@@ -8543,7 +8559,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="32.1">
+    <row r="105" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>43439</v>
       </c>
@@ -8578,7 +8594,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="32.1">
+    <row r="106" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>43439</v>
       </c>
@@ -8610,7 +8626,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="32.1">
+    <row r="107" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>43439</v>
       </c>
@@ -8642,7 +8658,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="32.1">
+    <row r="108" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>43439</v>
       </c>
@@ -8674,7 +8690,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="32.1">
+    <row r="109" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>43440</v>
       </c>
@@ -8706,7 +8722,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="110" spans="1:15" ht="32.1">
+    <row r="110" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>43440</v>
       </c>
@@ -8738,7 +8754,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="48">
+    <row r="111" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>43444</v>
       </c>
@@ -8764,7 +8780,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="48">
+    <row r="112" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>43444</v>
       </c>
@@ -8790,7 +8806,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="113" spans="1:15" ht="48">
+    <row r="113" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>43444</v>
       </c>
@@ -8819,7 +8835,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="48">
+    <row r="114" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>43444</v>
       </c>
@@ -8848,7 +8864,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="115" spans="1:15" ht="32.1">
+    <row r="115" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>43445</v>
       </c>
@@ -8880,7 +8896,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="32.1">
+    <row r="116" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>43445</v>
       </c>
@@ -8906,7 +8922,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="96">
+    <row r="117" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>43445</v>
       </c>
@@ -8944,7 +8960,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="118" spans="1:15" ht="32.1">
+    <row r="118" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>43445</v>
       </c>
@@ -8976,7 +8992,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="119" spans="1:15" ht="32.1">
+    <row r="119" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>43445</v>
       </c>
@@ -9011,7 +9027,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="120" spans="1:15" ht="48">
+    <row r="120" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>43446</v>
       </c>
@@ -9046,7 +9062,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="63.95">
+    <row r="121" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>43446</v>
       </c>
@@ -9075,7 +9091,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="48">
+    <row r="122" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>43446</v>
       </c>
@@ -9110,7 +9126,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="123" spans="1:15" ht="48">
+    <row r="123" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>43446</v>
       </c>
@@ -9145,7 +9161,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="32.1">
+    <row r="124" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>43448</v>
       </c>
@@ -9177,7 +9193,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="125" spans="1:15" ht="80.099999999999994">
+    <row r="125" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>43449</v>
       </c>
@@ -9209,7 +9225,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="126" spans="1:15" ht="32.1">
+    <row r="126" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>43451</v>
       </c>
@@ -9238,7 +9254,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="127" spans="1:15" ht="48">
+    <row r="127" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>43461</v>
       </c>
@@ -9273,7 +9289,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="128" spans="1:15" ht="32.1">
+    <row r="128" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="C128" s="2" t="s">
         <v>345</v>
       </c>
@@ -9296,7 +9312,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="129" spans="2:13" ht="32.1">
+    <row r="129" spans="2:13" ht="32" x14ac:dyDescent="0.2">
       <c r="C129" s="2" t="s">
         <v>64</v>
       </c>
@@ -9319,7 +9335,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="130" spans="2:13" ht="48">
+    <row r="130" spans="2:13" ht="48" x14ac:dyDescent="0.2">
       <c r="B130" s="1">
         <v>43480</v>
       </c>
@@ -9356,28 +9372,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC47564F-EC51-4B4A-B981-CA9F6F80F15D}">
   <dimension ref="A1:O90"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{55595646-237E-51EA-85B4-FDCCA4A360A5}">
-      <pane ySplit="1" topLeftCell="C87" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="3" customWidth="1"/>
-    <col min="7" max="11" width="9.140625" style="3"/>
-    <col min="12" max="12" width="19.28515625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" style="3" customWidth="1"/>
+    <col min="7" max="11" width="9.1640625" style="3"/>
+    <col min="12" max="12" width="19.33203125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" style="3" customWidth="1"/>
     <col min="14" max="14" width="22" style="3" customWidth="1"/>
-    <col min="15" max="15" width="30.140625" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="3"/>
+    <col min="15" max="15" width="30.1640625" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="5" customFormat="1" ht="15.95">
+    <row r="1" spans="1:15" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -9424,7 +9440,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="32.1">
+    <row r="2" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43116</v>
       </c>
@@ -9457,7 +9473,7 @@
       </c>
       <c r="O2" s="4"/>
     </row>
-    <row r="3" spans="1:15" ht="15.95">
+    <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43389</v>
       </c>
@@ -9492,7 +9508,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="32.1">
+    <row r="4" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43424</v>
       </c>
@@ -9527,7 +9543,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="32.1">
+    <row r="5" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43433</v>
       </c>
@@ -9553,7 +9569,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="32.1">
+    <row r="6" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43438</v>
       </c>
@@ -9586,7 +9602,7 @@
       </c>
       <c r="O6" s="4"/>
     </row>
-    <row r="7" spans="1:15" ht="48">
+    <row r="7" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43438</v>
       </c>
@@ -9618,7 +9634,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="48">
+    <row r="8" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43439</v>
       </c>
@@ -9656,7 +9672,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="32.1">
+    <row r="9" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43440</v>
       </c>
@@ -9691,7 +9707,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="32.1">
+    <row r="10" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43440</v>
       </c>
@@ -9723,7 +9739,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="32.1">
+    <row r="11" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43440</v>
       </c>
@@ -9756,7 +9772,7 @@
       </c>
       <c r="O11" s="4"/>
     </row>
-    <row r="12" spans="1:15" ht="32.1">
+    <row r="12" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43440</v>
       </c>
@@ -9791,7 +9807,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="32.1">
+    <row r="13" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43444</v>
       </c>
@@ -9824,7 +9840,7 @@
       </c>
       <c r="O13" s="4"/>
     </row>
-    <row r="14" spans="1:15" ht="48">
+    <row r="14" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43445</v>
       </c>
@@ -9862,7 +9878,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="32.1">
+    <row r="15" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43445</v>
       </c>
@@ -9895,7 +9911,7 @@
       </c>
       <c r="O15" s="4"/>
     </row>
-    <row r="16" spans="1:15" s="20" customFormat="1" ht="32.1">
+    <row r="16" spans="1:15" s="20" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43447</v>
       </c>
@@ -9934,7 +9950,7 @@
       </c>
       <c r="O16" s="4"/>
     </row>
-    <row r="17" spans="1:15" ht="32.1">
+    <row r="17" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43447</v>
       </c>
@@ -9964,7 +9980,7 @@
       </c>
       <c r="O17" s="4"/>
     </row>
-    <row r="18" spans="1:15" ht="32.1">
+    <row r="18" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43448</v>
       </c>
@@ -9997,7 +10013,7 @@
       </c>
       <c r="O18" s="4"/>
     </row>
-    <row r="19" spans="1:15" ht="32.1">
+    <row r="19" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43448</v>
       </c>
@@ -10030,7 +10046,7 @@
       </c>
       <c r="O19" s="4"/>
     </row>
-    <row r="20" spans="1:15" ht="32.1">
+    <row r="20" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43451</v>
       </c>
@@ -10063,7 +10079,7 @@
       </c>
       <c r="O20" s="4"/>
     </row>
-    <row r="21" spans="1:15" ht="48">
+    <row r="21" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43451</v>
       </c>
@@ -10090,7 +10106,7 @@
       </c>
       <c r="O21" s="4"/>
     </row>
-    <row r="22" spans="1:15" ht="32.1">
+    <row r="22" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43451</v>
       </c>
@@ -10123,7 +10139,7 @@
       </c>
       <c r="O22" s="4"/>
     </row>
-    <row r="23" spans="1:15" ht="32.1">
+    <row r="23" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43451</v>
       </c>
@@ -10156,7 +10172,7 @@
       </c>
       <c r="O23" s="4"/>
     </row>
-    <row r="24" spans="1:15" ht="32.1">
+    <row r="24" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43451</v>
       </c>
@@ -10189,7 +10205,7 @@
       </c>
       <c r="O24" s="4"/>
     </row>
-    <row r="25" spans="1:15" ht="32.1">
+    <row r="25" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43451</v>
       </c>
@@ -10224,7 +10240,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="32.1">
+    <row r="26" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43452</v>
       </c>
@@ -10260,7 +10276,7 @@
       </c>
       <c r="O26" s="4"/>
     </row>
-    <row r="27" spans="1:15" ht="63.95">
+    <row r="27" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43452</v>
       </c>
@@ -10289,7 +10305,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="32.1">
+    <row r="28" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43452</v>
       </c>
@@ -10325,7 +10341,7 @@
       </c>
       <c r="O28" s="4"/>
     </row>
-    <row r="29" spans="1:15" ht="80.099999999999994">
+    <row r="29" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43452</v>
       </c>
@@ -10361,7 +10377,7 @@
       </c>
       <c r="O29" s="4"/>
     </row>
-    <row r="30" spans="1:15" ht="48">
+    <row r="30" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43452</v>
       </c>
@@ -10394,7 +10410,7 @@
       </c>
       <c r="O30" s="4"/>
     </row>
-    <row r="31" spans="1:15" ht="48">
+    <row r="31" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43453</v>
       </c>
@@ -10423,7 +10439,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="32.1">
+    <row r="32" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43453</v>
       </c>
@@ -10456,7 +10472,7 @@
       </c>
       <c r="O32" s="4"/>
     </row>
-    <row r="33" spans="1:15" ht="32.1">
+    <row r="33" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="18">
         <v>43453</v>
       </c>
@@ -10489,7 +10505,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="32.1">
+    <row r="34" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>43453</v>
       </c>
@@ -10522,7 +10538,7 @@
       </c>
       <c r="O34" s="4"/>
     </row>
-    <row r="35" spans="1:15" ht="32.1">
+    <row r="35" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43454</v>
       </c>
@@ -10560,7 +10576,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="32.1">
+    <row r="36" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>43454</v>
       </c>
@@ -10593,7 +10609,7 @@
       </c>
       <c r="O36" s="4"/>
     </row>
-    <row r="37" spans="1:15" ht="32.1">
+    <row r="37" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>43461</v>
       </c>
@@ -10626,7 +10642,7 @@
       </c>
       <c r="O37" s="4"/>
     </row>
-    <row r="38" spans="1:15" ht="32.1">
+    <row r="38" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>43461</v>
       </c>
@@ -10656,7 +10672,7 @@
       </c>
       <c r="O38" s="4"/>
     </row>
-    <row r="39" spans="1:15" ht="32.1">
+    <row r="39" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>43467</v>
       </c>
@@ -10691,7 +10707,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="32.1">
+    <row r="40" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>43467</v>
       </c>
@@ -10724,7 +10740,7 @@
       </c>
       <c r="O40" s="4"/>
     </row>
-    <row r="41" spans="1:15" ht="32.1">
+    <row r="41" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>43467</v>
       </c>
@@ -10757,7 +10773,7 @@
       </c>
       <c r="O41" s="4"/>
     </row>
-    <row r="42" spans="1:15" ht="15.95">
+    <row r="42" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>43468</v>
       </c>
@@ -10787,7 +10803,7 @@
       </c>
       <c r="O42" s="4"/>
     </row>
-    <row r="43" spans="1:15" ht="32.1">
+    <row r="43" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>43468</v>
       </c>
@@ -10820,7 +10836,7 @@
       </c>
       <c r="O43" s="4"/>
     </row>
-    <row r="44" spans="1:15" s="21" customFormat="1" ht="32.1">
+    <row r="44" spans="1:15" s="21" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43468</v>
       </c>
@@ -10857,7 +10873,7 @@
       <c r="N44" s="3"/>
       <c r="O44" s="4"/>
     </row>
-    <row r="45" spans="1:15" ht="32.1">
+    <row r="45" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43468</v>
       </c>
@@ -10890,7 +10906,7 @@
       </c>
       <c r="O45" s="4"/>
     </row>
-    <row r="46" spans="1:15" ht="32.1">
+    <row r="46" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>43468</v>
       </c>
@@ -10926,7 +10942,7 @@
       </c>
       <c r="O46" s="4"/>
     </row>
-    <row r="47" spans="1:15" ht="32.1">
+    <row r="47" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>43468</v>
       </c>
@@ -10958,7 +10974,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="32.1">
+    <row r="48" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>43468</v>
       </c>
@@ -10991,7 +11007,7 @@
       </c>
       <c r="O48" s="4"/>
     </row>
-    <row r="49" spans="1:15" ht="32.1">
+    <row r="49" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>43468</v>
       </c>
@@ -11026,7 +11042,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="32.1">
+    <row r="50" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>43468</v>
       </c>
@@ -11062,7 +11078,7 @@
       </c>
       <c r="O50" s="4"/>
     </row>
-    <row r="51" spans="1:15" s="20" customFormat="1" ht="32.1">
+    <row r="51" spans="1:15" s="20" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>43468</v>
       </c>
@@ -11097,7 +11113,7 @@
       <c r="N51" s="3"/>
       <c r="O51" s="4"/>
     </row>
-    <row r="52" spans="1:15" ht="32.1">
+    <row r="52" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>43468</v>
       </c>
@@ -11133,7 +11149,7 @@
       </c>
       <c r="O52" s="4"/>
     </row>
-    <row r="53" spans="1:15" ht="32.1">
+    <row r="53" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>43468</v>
       </c>
@@ -11166,7 +11182,7 @@
       </c>
       <c r="O53" s="4"/>
     </row>
-    <row r="54" spans="1:15" ht="32.1">
+    <row r="54" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>43469</v>
       </c>
@@ -11196,7 +11212,7 @@
       </c>
       <c r="O54" s="4"/>
     </row>
-    <row r="55" spans="1:15" ht="32.1">
+    <row r="55" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>43469</v>
       </c>
@@ -11226,7 +11242,7 @@
       </c>
       <c r="O55" s="4"/>
     </row>
-    <row r="56" spans="1:15" ht="32.1">
+    <row r="56" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>43469</v>
       </c>
@@ -11259,7 +11275,7 @@
       </c>
       <c r="O56" s="4"/>
     </row>
-    <row r="57" spans="1:15" ht="32.1">
+    <row r="57" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>43469</v>
       </c>
@@ -11292,7 +11308,7 @@
       </c>
       <c r="O57" s="4"/>
     </row>
-    <row r="58" spans="1:15" ht="32.1">
+    <row r="58" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>43469</v>
       </c>
@@ -11330,7 +11346,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="15.95">
+    <row r="59" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>43469</v>
       </c>
@@ -11365,7 +11381,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="48">
+    <row r="60" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>43472</v>
       </c>
@@ -11398,7 +11414,7 @@
       </c>
       <c r="O60" s="4"/>
     </row>
-    <row r="61" spans="1:15" ht="30">
+    <row r="61" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>43472</v>
       </c>
@@ -11434,7 +11450,7 @@
       </c>
       <c r="O61" s="4"/>
     </row>
-    <row r="62" spans="1:15" ht="32.1">
+    <row r="62" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>43472</v>
       </c>
@@ -11467,7 +11483,7 @@
       </c>
       <c r="O62" s="4"/>
     </row>
-    <row r="63" spans="1:15" ht="32.1">
+    <row r="63" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>43473</v>
       </c>
@@ -11503,7 +11519,7 @@
       </c>
       <c r="O63" s="4"/>
     </row>
-    <row r="64" spans="1:15" ht="32.1">
+    <row r="64" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>43473</v>
       </c>
@@ -11536,7 +11552,7 @@
       </c>
       <c r="O64" s="4"/>
     </row>
-    <row r="65" spans="1:15" ht="32.1">
+    <row r="65" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>43474</v>
       </c>
@@ -11569,7 +11585,7 @@
       </c>
       <c r="O65" s="4"/>
     </row>
-    <row r="66" spans="1:15" ht="32.1">
+    <row r="66" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>43476</v>
       </c>
@@ -11599,7 +11615,7 @@
       </c>
       <c r="O66" s="4"/>
     </row>
-    <row r="67" spans="1:15" ht="32.1">
+    <row r="67" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>43476</v>
       </c>
@@ -11637,7 +11653,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="32.1">
+    <row r="68" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>43476</v>
       </c>
@@ -11675,7 +11691,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="32.1">
+    <row r="69" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>43476</v>
       </c>
@@ -11708,7 +11724,7 @@
       </c>
       <c r="O69" s="4"/>
     </row>
-    <row r="70" spans="1:15" ht="48">
+    <row r="70" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>43479</v>
       </c>
@@ -11746,7 +11762,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="33">
+    <row r="71" spans="1:15" ht="33" x14ac:dyDescent="0.25">
       <c r="A71" s="18">
         <v>43480</v>
       </c>
@@ -11785,7 +11801,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="32.1">
+    <row r="72" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>43480</v>
       </c>
@@ -11821,7 +11837,7 @@
       </c>
       <c r="O72" s="4"/>
     </row>
-    <row r="73" spans="1:15" ht="32.1">
+    <row r="73" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>43480</v>
       </c>
@@ -11857,7 +11873,7 @@
       </c>
       <c r="O73" s="4"/>
     </row>
-    <row r="74" spans="1:15" ht="32.1">
+    <row r="74" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>43480</v>
       </c>
@@ -11893,7 +11909,7 @@
       </c>
       <c r="O74" s="4"/>
     </row>
-    <row r="75" spans="1:15" ht="32.1">
+    <row r="75" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>43480</v>
       </c>
@@ -11931,7 +11947,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="32.1">
+    <row r="76" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>43481</v>
       </c>
@@ -11964,7 +11980,7 @@
       </c>
       <c r="O76" s="4"/>
     </row>
-    <row r="77" spans="1:15" ht="32.1">
+    <row r="77" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>43481</v>
       </c>
@@ -11999,7 +12015,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="78" spans="1:15" s="20" customFormat="1" ht="32.1">
+    <row r="78" spans="1:15" s="20" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>43481</v>
       </c>
@@ -12036,7 +12052,7 @@
       <c r="N78" s="3"/>
       <c r="O78" s="4"/>
     </row>
-    <row r="79" spans="1:15" ht="32.1">
+    <row r="79" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>43481</v>
       </c>
@@ -12065,7 +12081,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="48">
+    <row r="80" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>43483</v>
       </c>
@@ -12095,7 +12111,7 @@
       </c>
       <c r="O80" s="4"/>
     </row>
-    <row r="81" spans="1:15" ht="32.1">
+    <row r="81" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>43483</v>
       </c>
@@ -12125,7 +12141,7 @@
       </c>
       <c r="O81" s="4"/>
     </row>
-    <row r="82" spans="1:15" ht="48">
+    <row r="82" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>43483</v>
       </c>
@@ -12163,7 +12179,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="32.1">
+    <row r="83" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A83" s="18">
         <v>43486</v>
       </c>
@@ -12202,7 +12218,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="32.1">
+    <row r="84" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>43487</v>
       </c>
@@ -12234,7 +12250,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="32.1">
+    <row r="85" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>43488</v>
       </c>
@@ -12269,7 +12285,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="32.1">
+    <row r="86" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>43494</v>
       </c>
@@ -12302,7 +12318,7 @@
       </c>
       <c r="O86" s="4"/>
     </row>
-    <row r="87" spans="1:15" ht="48">
+    <row r="87" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>43816</v>
       </c>
@@ -12334,7 +12350,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="63.95">
+    <row r="88" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="B88" s="1">
         <v>43472</v>
       </c>
@@ -12366,7 +12382,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="89" spans="1:15">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="21"/>
       <c r="B89" s="26">
         <v>43480</v>
@@ -12401,7 +12417,7 @@
       </c>
       <c r="O89" s="21"/>
     </row>
-    <row r="90" spans="1:15" ht="32.1">
+    <row r="90" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="B90" s="1">
         <v>43494</v>
       </c>
@@ -12452,21 +12468,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5049BB67-F292-40B3-82BD-D26B35513DD1}">
   <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{189C6D7E-EB98-59E1-AA31-7B552EB50765}"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="47.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="47.1640625" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.5" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="32.42578125" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="32.5" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" customWidth="1"/>
+    <col min="11" max="11" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="84" customFormat="1" ht="53.1" customHeight="1">
+    <row r="1" spans="1:23" s="84" customFormat="1" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="84" t="s">
         <v>531</v>
       </c>
@@ -12491,7 +12507,7 @@
       <c r="H1" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="177" t="s">
+      <c r="I1" s="176" t="s">
         <v>535</v>
       </c>
       <c r="J1" s="84" t="s">
@@ -12507,7 +12523,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="89" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:23" s="89" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="105">
         <v>43557</v>
       </c>
@@ -12548,7 +12564,7 @@
       <c r="V2" s="98"/>
       <c r="W2" s="98"/>
     </row>
-    <row r="3" spans="1:23" s="89" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:23" s="89" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="105">
         <v>43557</v>
       </c>
@@ -12598,38 +12614,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.42578125" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="22.5" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="89" customWidth="1"/>
-    <col min="2" max="2" width="11" style="89" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="89" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" style="89" customWidth="1"/>
+    <col min="2" max="2" width="11" style="181" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="89" customWidth="1"/>
     <col min="4" max="4" width="42" style="89" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="89" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="89" customWidth="1"/>
-    <col min="7" max="7" width="23.28515625" style="89" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" style="89" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="98" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="89" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="94" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" style="90" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" style="90" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" style="90" customWidth="1"/>
-    <col min="15" max="15" width="7.7109375" style="90" customWidth="1"/>
-    <col min="16" max="16" width="55.140625" style="89" customWidth="1"/>
-    <col min="17" max="17" width="59.28515625" style="89" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="22.42578125" style="89"/>
+    <col min="5" max="5" width="16.83203125" style="89" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" style="89" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" style="89" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" style="89" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" style="98" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="89" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" style="94" customWidth="1"/>
+    <col min="12" max="12" width="9.83203125" style="90" customWidth="1"/>
+    <col min="13" max="13" width="10.1640625" style="90" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" style="90" customWidth="1"/>
+    <col min="15" max="15" width="7.6640625" style="90" customWidth="1"/>
+    <col min="16" max="16" width="55.1640625" style="89" customWidth="1"/>
+    <col min="17" max="17" width="59.33203125" style="89" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="22.5" style="89"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="84" customFormat="1" ht="53.1" customHeight="1">
+    <row r="1" spans="1:23" s="84" customFormat="1" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="180" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="84" t="s">
@@ -12650,7 +12666,7 @@
       <c r="H1" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="177" t="s">
+      <c r="I1" s="176" t="s">
         <v>545</v>
       </c>
       <c r="J1" s="84" t="s">
@@ -12675,11 +12691,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="28.5" customHeight="1">
+    <row r="2" spans="1:23" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="87">
         <v>43495</v>
       </c>
-      <c r="B2" s="86">
+      <c r="B2" s="181">
         <v>43536</v>
       </c>
       <c r="C2" s="86">
@@ -12707,11 +12723,11 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="41.25" customHeight="1">
+    <row r="3" spans="1:23" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="105">
         <v>43536</v>
       </c>
-      <c r="B3" s="105">
+      <c r="B3" s="182">
         <v>43546</v>
       </c>
       <c r="C3" s="105" t="s">
@@ -12723,7 +12739,7 @@
       <c r="E3" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="175" t="s">
+      <c r="F3" s="174" t="s">
         <v>22</v>
       </c>
       <c r="G3" s="95"/>
@@ -12751,11 +12767,11 @@
       <c r="V3" s="98"/>
       <c r="W3" s="98"/>
     </row>
-    <row r="4" spans="1:23" ht="27" customHeight="1">
+    <row r="4" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="105">
         <v>43544</v>
       </c>
-      <c r="B4" s="105">
+      <c r="B4" s="182">
         <v>43551</v>
       </c>
       <c r="C4" s="105">
@@ -12799,11 +12815,11 @@
       <c r="V4" s="98"/>
       <c r="W4" s="98"/>
     </row>
-    <row r="5" spans="1:23" ht="63.75" customHeight="1">
+    <row r="5" spans="1:23" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="105">
         <v>43539</v>
       </c>
-      <c r="B5" s="105">
+      <c r="B5" s="182">
         <v>43552</v>
       </c>
       <c r="C5" s="105">
@@ -12855,11 +12871,11 @@
       <c r="V5" s="98"/>
       <c r="W5" s="98"/>
     </row>
-    <row r="6" spans="1:23" ht="46.5" customHeight="1">
+    <row r="6" spans="1:23" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="86">
         <v>43530</v>
       </c>
-      <c r="B6" s="86">
+      <c r="B6" s="181">
         <v>43553</v>
       </c>
       <c r="C6" s="116" t="s">
@@ -12899,11 +12915,11 @@
         <v>571</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="46.5" customHeight="1">
+    <row r="7" spans="1:23" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="86">
         <v>43530</v>
       </c>
-      <c r="B7" s="86">
+      <c r="B7" s="181">
         <v>43553</v>
       </c>
       <c r="C7" s="116" t="s">
@@ -12943,11 +12959,11 @@
         <v>573</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="30" customHeight="1">
+    <row r="8" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="86">
         <v>43537</v>
       </c>
-      <c r="B8" s="86">
+      <c r="B8" s="181">
         <v>43557</v>
       </c>
       <c r="C8" s="86">
@@ -12987,11 +13003,11 @@
         <v>579</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="30" customHeight="1">
+    <row r="9" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="86">
         <v>43539</v>
       </c>
-      <c r="B9" s="86">
+      <c r="B9" s="181">
         <v>43557</v>
       </c>
       <c r="C9" s="86">
@@ -13029,11 +13045,11 @@
         <v>582</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="98" customFormat="1" ht="45" customHeight="1">
+    <row r="10" spans="1:23" s="98" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="86">
         <v>43544</v>
       </c>
-      <c r="B10" s="86">
+      <c r="B10" s="181">
         <v>43557</v>
       </c>
       <c r="C10" s="86">
@@ -13077,11 +13093,11 @@
       <c r="V10" s="89"/>
       <c r="W10" s="89"/>
     </row>
-    <row r="11" spans="1:23" s="98" customFormat="1" ht="45" customHeight="1">
+    <row r="11" spans="1:23" s="98" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="86">
         <v>43549</v>
       </c>
-      <c r="B11" s="86">
+      <c r="B11" s="181">
         <v>43557</v>
       </c>
       <c r="C11" s="86">
@@ -13127,11 +13143,11 @@
       <c r="V11" s="89"/>
       <c r="W11" s="89"/>
     </row>
-    <row r="12" spans="1:23" s="98" customFormat="1" ht="45" customHeight="1">
+    <row r="12" spans="1:23" s="98" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="86">
         <v>43551</v>
       </c>
-      <c r="B12" s="86">
+      <c r="B12" s="181">
         <v>43557</v>
       </c>
       <c r="C12" s="86">
@@ -13177,11 +13193,11 @@
       <c r="V12" s="89"/>
       <c r="W12" s="89"/>
     </row>
-    <row r="13" spans="1:23" s="98" customFormat="1" ht="45" customHeight="1">
+    <row r="13" spans="1:23" s="98" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="86">
         <v>43549</v>
       </c>
-      <c r="B13" s="86">
+      <c r="B13" s="181">
         <v>43558</v>
       </c>
       <c r="C13" s="86">
@@ -13223,11 +13239,11 @@
       <c r="V13" s="89"/>
       <c r="W13" s="89"/>
     </row>
-    <row r="14" spans="1:23" s="98" customFormat="1" ht="45" customHeight="1">
+    <row r="14" spans="1:23" s="98" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="105">
         <v>43553</v>
       </c>
-      <c r="B14" s="105">
+      <c r="B14" s="182">
         <v>43558</v>
       </c>
       <c r="C14" s="105">
@@ -13268,11 +13284,11 @@
         <v>601</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="98" customFormat="1" ht="45" customHeight="1">
+    <row r="15" spans="1:23" s="98" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="105">
         <v>43553</v>
       </c>
-      <c r="B15" s="105">
+      <c r="B15" s="182">
         <v>43558</v>
       </c>
       <c r="C15" s="105">
@@ -13313,11 +13329,11 @@
         <v>601</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="98" customFormat="1" ht="45" customHeight="1">
+    <row r="16" spans="1:23" s="98" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="105">
         <v>43553</v>
       </c>
-      <c r="B16" s="105">
+      <c r="B16" s="182">
         <v>43558</v>
       </c>
       <c r="C16" s="105">
@@ -13338,7 +13354,7 @@
       <c r="H16" s="95" t="s">
         <v>608</v>
       </c>
-      <c r="I16" s="180" t="s">
+      <c r="I16" s="179" t="s">
         <v>609</v>
       </c>
       <c r="J16" s="98" t="s">
@@ -13361,11 +13377,11 @@
         <v>611</v>
       </c>
     </row>
-    <row r="17" spans="1:23" s="98" customFormat="1" ht="45" customHeight="1">
+    <row r="17" spans="1:23" s="98" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="105">
         <v>43553</v>
       </c>
-      <c r="B17" s="105">
+      <c r="B17" s="182">
         <v>43558</v>
       </c>
       <c r="C17" s="105">
@@ -13401,11 +13417,11 @@
       </c>
       <c r="O17" s="106"/>
     </row>
-    <row r="18" spans="1:23" s="98" customFormat="1" ht="45" customHeight="1">
+    <row r="18" spans="1:23" s="98" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="105">
         <v>43556</v>
       </c>
-      <c r="B18" s="105">
+      <c r="B18" s="182">
         <v>43558</v>
       </c>
       <c r="C18" s="105">
@@ -13444,11 +13460,11 @@
       </c>
       <c r="O18" s="106"/>
     </row>
-    <row r="19" spans="1:23" s="98" customFormat="1" ht="45" customHeight="1">
+    <row r="19" spans="1:23" s="98" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="86">
         <v>43535</v>
       </c>
-      <c r="B19" s="86">
+      <c r="B19" s="181">
         <v>43559</v>
       </c>
       <c r="C19" s="86">
@@ -13489,11 +13505,11 @@
       <c r="V19" s="89"/>
       <c r="W19" s="89"/>
     </row>
-    <row r="20" spans="1:23" ht="45" customHeight="1">
+    <row r="20" spans="1:23" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="105">
         <v>43523</v>
       </c>
-      <c r="B20" s="105">
+      <c r="B20" s="182">
         <v>43560</v>
       </c>
       <c r="C20" s="105">
@@ -13543,11 +13559,11 @@
       <c r="V20" s="98"/>
       <c r="W20" s="98"/>
     </row>
-    <row r="21" spans="1:23" ht="30" customHeight="1">
+    <row r="21" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="105">
         <v>43523</v>
       </c>
-      <c r="B21" s="105">
+      <c r="B21" s="182">
         <v>43560</v>
       </c>
       <c r="C21" s="105">
@@ -13595,11 +13611,11 @@
       <c r="V21" s="98"/>
       <c r="W21" s="98"/>
     </row>
-    <row r="22" spans="1:23" ht="30.75" customHeight="1">
+    <row r="22" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="105">
         <v>43532</v>
       </c>
-      <c r="B22" s="105">
+      <c r="B22" s="182">
         <v>43560</v>
       </c>
       <c r="C22" s="105">
@@ -13649,11 +13665,11 @@
       <c r="V22" s="98"/>
       <c r="W22" s="98"/>
     </row>
-    <row r="23" spans="1:23" s="98" customFormat="1" ht="30" customHeight="1">
+    <row r="23" spans="1:23" s="98" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="105">
         <v>43542</v>
       </c>
-      <c r="B23" s="105">
+      <c r="B23" s="182">
         <v>43560</v>
       </c>
       <c r="C23" s="105">
@@ -13691,11 +13707,11 @@
       </c>
       <c r="O23" s="106"/>
     </row>
-    <row r="24" spans="1:23" s="98" customFormat="1" ht="30" customHeight="1">
+    <row r="24" spans="1:23" s="98" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="105">
         <v>43545</v>
       </c>
-      <c r="B24" s="105">
+      <c r="B24" s="182">
         <v>43560</v>
       </c>
       <c r="C24" s="105">
@@ -13739,11 +13755,11 @@
         <v>637</v>
       </c>
     </row>
-    <row r="25" spans="1:23" s="98" customFormat="1" ht="30" customHeight="1">
+    <row r="25" spans="1:23" s="98" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="105">
         <v>43552</v>
       </c>
-      <c r="B25" s="105">
+      <c r="B25" s="182">
         <v>43560</v>
       </c>
       <c r="C25" s="105">
@@ -13767,7 +13783,7 @@
       <c r="J25" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="K25" s="176" t="s">
+      <c r="K25" s="175" t="s">
         <v>227</v>
       </c>
       <c r="L25" s="106">
@@ -13795,11 +13811,11 @@
       <c r="V25" s="89"/>
       <c r="W25" s="89"/>
     </row>
-    <row r="26" spans="1:23" s="98" customFormat="1" ht="30" customHeight="1">
+    <row r="26" spans="1:23" s="98" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="105">
         <v>43531</v>
       </c>
-      <c r="B26" s="105">
+      <c r="B26" s="182">
         <v>43561</v>
       </c>
       <c r="C26" s="105">
@@ -13841,11 +13857,11 @@
         <v>648</v>
       </c>
     </row>
-    <row r="27" spans="1:23" s="98" customFormat="1" ht="30" customHeight="1">
+    <row r="27" spans="1:23" s="98" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="86">
         <v>43553</v>
       </c>
-      <c r="B27" s="86">
+      <c r="B27" s="181">
         <v>43563</v>
       </c>
       <c r="C27" s="86">
@@ -13884,11 +13900,11 @@
       <c r="Q27" s="89"/>
       <c r="R27" s="89"/>
     </row>
-    <row r="28" spans="1:23" s="98" customFormat="1" ht="25.5" customHeight="1">
+    <row r="28" spans="1:23" s="98" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="86">
         <v>43549</v>
       </c>
-      <c r="B28" s="86">
+      <c r="B28" s="181">
         <v>43563</v>
       </c>
       <c r="C28" s="86">
@@ -13929,11 +13945,11 @@
       <c r="Q28" s="89"/>
       <c r="R28" s="89"/>
     </row>
-    <row r="29" spans="1:23" s="98" customFormat="1" ht="25.5" customHeight="1">
+    <row r="29" spans="1:23" s="98" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="86">
         <v>43557</v>
       </c>
-      <c r="B29" s="86">
+      <c r="B29" s="181">
         <v>43564</v>
       </c>
       <c r="C29" s="86">
@@ -13972,11 +13988,11 @@
       <c r="Q29" s="89"/>
       <c r="R29" s="89"/>
     </row>
-    <row r="30" spans="1:23" s="95" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:23" s="95" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="86">
         <v>43546</v>
       </c>
-      <c r="B30" s="86">
+      <c r="B30" s="181">
         <v>43565</v>
       </c>
       <c r="C30" s="86">
@@ -14024,11 +14040,11 @@
       <c r="V30" s="98"/>
       <c r="W30" s="98"/>
     </row>
-    <row r="31" spans="1:23" s="98" customFormat="1" ht="25.5" customHeight="1">
+    <row r="31" spans="1:23" s="98" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="86">
         <v>43546</v>
       </c>
-      <c r="B31" s="86">
+      <c r="B31" s="181">
         <v>43565</v>
       </c>
       <c r="C31" s="86">
@@ -14067,11 +14083,11 @@
       <c r="Q31" s="89"/>
       <c r="R31" s="89"/>
     </row>
-    <row r="32" spans="1:23" s="98" customFormat="1" ht="25.5" customHeight="1">
+    <row r="32" spans="1:23" s="98" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="86">
         <v>43549</v>
       </c>
-      <c r="B32" s="86">
+      <c r="B32" s="181">
         <v>43565</v>
       </c>
       <c r="C32" s="86">
@@ -14095,7 +14111,7 @@
       <c r="J32" s="98" t="s">
         <v>595</v>
       </c>
-      <c r="K32" s="176"/>
+      <c r="K32" s="175"/>
       <c r="L32" s="96">
         <v>245</v>
       </c>
@@ -14117,9 +14133,9 @@
       <c r="V32" s="89"/>
       <c r="W32" s="89"/>
     </row>
-    <row r="33" spans="1:23" s="98" customFormat="1" ht="25.5" customHeight="1">
+    <row r="33" spans="1:23" s="98" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="89"/>
-      <c r="B33" s="86">
+      <c r="B33" s="181">
         <v>43565</v>
       </c>
       <c r="C33" s="86">
@@ -14163,11 +14179,11 @@
       <c r="V33" s="89"/>
       <c r="W33" s="89"/>
     </row>
-    <row r="34" spans="1:23" s="98" customFormat="1" ht="25.5" customHeight="1">
+    <row r="34" spans="1:23" s="98" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="86">
         <v>43550</v>
       </c>
-      <c r="B34" s="86">
+      <c r="B34" s="181">
         <v>43566</v>
       </c>
       <c r="C34" s="86">
@@ -14213,11 +14229,11 @@
       <c r="V34" s="89"/>
       <c r="W34" s="89"/>
     </row>
-    <row r="35" spans="1:23" s="98" customFormat="1" ht="25.5" customHeight="1">
+    <row r="35" spans="1:23" s="98" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="86">
         <v>43546</v>
       </c>
-      <c r="B35" s="86">
+      <c r="B35" s="181">
         <v>43567</v>
       </c>
       <c r="C35" s="86">
@@ -14259,11 +14275,11 @@
       <c r="V35" s="89"/>
       <c r="W35" s="89"/>
     </row>
-    <row r="36" spans="1:23" s="98" customFormat="1" ht="25.5" customHeight="1">
+    <row r="36" spans="1:23" s="98" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="86">
         <v>43551</v>
       </c>
-      <c r="B36" s="86">
+      <c r="B36" s="181">
         <v>43567</v>
       </c>
       <c r="C36" s="86">
@@ -14309,11 +14325,11 @@
       <c r="V36" s="89"/>
       <c r="W36" s="89"/>
     </row>
-    <row r="37" spans="1:23" s="98" customFormat="1" ht="25.5" customHeight="1">
+    <row r="37" spans="1:23" s="98" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="86">
         <v>43551</v>
       </c>
-      <c r="B37" s="86">
+      <c r="B37" s="181">
         <v>43567</v>
       </c>
       <c r="C37" s="86">
@@ -14359,11 +14375,11 @@
       <c r="V37" s="89"/>
       <c r="W37" s="89"/>
     </row>
-    <row r="38" spans="1:23" s="98" customFormat="1" ht="25.5" customHeight="1">
+    <row r="38" spans="1:23" s="98" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="105">
         <v>43551</v>
       </c>
-      <c r="B38" s="105">
+      <c r="B38" s="182">
         <v>43567</v>
       </c>
       <c r="C38" s="105">
@@ -14404,11 +14420,11 @@
         <v>677</v>
       </c>
     </row>
-    <row r="39" spans="1:23" s="98" customFormat="1" ht="25.5" customHeight="1">
+    <row r="39" spans="1:23" s="98" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="86">
         <v>43551</v>
       </c>
-      <c r="B39" s="86">
+      <c r="B39" s="181">
         <v>43567</v>
       </c>
       <c r="C39" s="86">
@@ -14454,11 +14470,11 @@
       <c r="V39" s="89"/>
       <c r="W39" s="89"/>
     </row>
-    <row r="40" spans="1:23" s="98" customFormat="1" ht="25.5" customHeight="1">
+    <row r="40" spans="1:23" s="98" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="86">
         <v>43552</v>
       </c>
-      <c r="B40" s="86">
+      <c r="B40" s="181">
         <v>43567</v>
       </c>
       <c r="C40" s="86">
@@ -14504,11 +14520,11 @@
       <c r="V40" s="89"/>
       <c r="W40" s="89"/>
     </row>
-    <row r="41" spans="1:23" s="98" customFormat="1" ht="25.5" customHeight="1">
+    <row r="41" spans="1:23" s="98" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="105">
         <v>43538</v>
       </c>
-      <c r="B41" s="105">
+      <c r="B41" s="182">
         <v>43568</v>
       </c>
       <c r="C41" s="105">
@@ -14545,11 +14561,11 @@
         <v>688</v>
       </c>
     </row>
-    <row r="42" spans="1:23" s="98" customFormat="1" ht="25.5" customHeight="1">
+    <row r="42" spans="1:23" s="98" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="86">
         <v>43439</v>
       </c>
-      <c r="B42" s="86">
+      <c r="B42" s="181">
         <v>43570</v>
       </c>
       <c r="C42" s="86">
@@ -14593,11 +14609,11 @@
       <c r="V42" s="89"/>
       <c r="W42" s="89"/>
     </row>
-    <row r="43" spans="1:23" s="98" customFormat="1" ht="25.5" customHeight="1">
+    <row r="43" spans="1:23" s="98" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="105">
         <v>43538</v>
       </c>
-      <c r="B43" s="105">
+      <c r="B43" s="182">
         <v>43570</v>
       </c>
       <c r="C43" s="105">
@@ -14631,11 +14647,11 @@
       <c r="N43" s="106"/>
       <c r="O43" s="106"/>
     </row>
-    <row r="44" spans="1:23" s="98" customFormat="1" ht="25.5" customHeight="1">
+    <row r="44" spans="1:23" s="98" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="105">
         <v>43552</v>
       </c>
-      <c r="B44" s="105">
+      <c r="B44" s="182">
         <v>43570</v>
       </c>
       <c r="C44" s="105">
@@ -14675,11 +14691,11 @@
         <v>699</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="32.25" customHeight="1">
+    <row r="45" spans="1:23" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="86">
         <v>43553</v>
       </c>
-      <c r="B45" s="86">
+      <c r="B45" s="181">
         <v>43570</v>
       </c>
       <c r="C45" s="86">
@@ -14716,11 +14732,11 @@
         <v>501</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="32.25" customHeight="1">
+    <row r="46" spans="1:23" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="105">
         <v>43556</v>
       </c>
-      <c r="B46" s="105">
+      <c r="B46" s="182">
         <v>43570</v>
       </c>
       <c r="C46" s="105">
@@ -14766,11 +14782,11 @@
       <c r="V46" s="98"/>
       <c r="W46" s="98"/>
     </row>
-    <row r="47" spans="1:23" ht="20.100000000000001" customHeight="1">
+    <row r="47" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="105">
         <v>43556</v>
       </c>
-      <c r="B47" s="105">
+      <c r="B47" s="182">
         <v>43570</v>
       </c>
       <c r="C47" s="105">
@@ -14812,11 +14828,11 @@
       <c r="V47" s="98"/>
       <c r="W47" s="98"/>
     </row>
-    <row r="48" spans="1:23" s="98" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="48" spans="1:23" s="98" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="105">
         <v>43556</v>
       </c>
-      <c r="B48" s="105">
+      <c r="B48" s="182">
         <v>43570</v>
       </c>
       <c r="C48" s="105">
@@ -14850,11 +14866,11 @@
       <c r="N48" s="106"/>
       <c r="O48" s="106"/>
     </row>
-    <row r="49" spans="1:23" s="98" customFormat="1" ht="24" customHeight="1">
+    <row r="49" spans="1:23" s="98" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="105">
         <v>43557</v>
       </c>
-      <c r="B49" s="105">
+      <c r="B49" s="182">
         <v>43571</v>
       </c>
       <c r="C49" s="105">
@@ -14890,11 +14906,11 @@
       </c>
       <c r="O49" s="106"/>
     </row>
-    <row r="50" spans="1:23" s="98" customFormat="1" ht="24" customHeight="1">
+    <row r="50" spans="1:23" s="98" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="105">
         <v>43557</v>
       </c>
-      <c r="B50" s="105">
+      <c r="B50" s="182">
         <v>43573</v>
       </c>
       <c r="C50" s="105">
@@ -14933,11 +14949,11 @@
         <v>720</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="28.5" customHeight="1">
+    <row r="51" spans="1:23" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="86">
         <v>43554</v>
       </c>
-      <c r="B51" s="86">
+      <c r="B51" s="181">
         <v>43573</v>
       </c>
       <c r="C51" s="86">
@@ -14974,11 +14990,11 @@
         <v>501</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="26.25" customHeight="1">
+    <row r="52" spans="1:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="86">
         <v>43554</v>
       </c>
-      <c r="B52" s="86">
+      <c r="B52" s="181">
         <v>43573</v>
       </c>
       <c r="C52" s="86">
@@ -15012,11 +15028,11 @@
         <v>501</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="29.25" customHeight="1">
+    <row r="53" spans="1:23" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="86">
         <v>43555</v>
       </c>
-      <c r="B53" s="86">
+      <c r="B53" s="181">
         <v>43574</v>
       </c>
       <c r="C53" s="86">
@@ -15053,11 +15069,11 @@
         <v>725</v>
       </c>
     </row>
-    <row r="54" spans="1:23" s="98" customFormat="1" ht="32.25" customHeight="1">
+    <row r="54" spans="1:23" s="98" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="86">
         <v>43555</v>
       </c>
-      <c r="B54" s="86">
+      <c r="B54" s="181">
         <v>43574</v>
       </c>
       <c r="C54" s="86">
@@ -15103,11 +15119,11 @@
       <c r="V54" s="89"/>
       <c r="W54" s="89"/>
     </row>
-    <row r="55" spans="1:23" ht="32.25" customHeight="1">
+    <row r="55" spans="1:23" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="105">
         <v>43539</v>
       </c>
-      <c r="B55" s="105">
+      <c r="B55" s="182">
         <v>43577</v>
       </c>
       <c r="C55" s="105">
@@ -15151,11 +15167,11 @@
       <c r="V55" s="98"/>
       <c r="W55" s="98"/>
     </row>
-    <row r="56" spans="1:23" ht="32.25" customHeight="1">
+    <row r="56" spans="1:23" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="86">
         <v>43539</v>
       </c>
-      <c r="B56" s="86">
+      <c r="B56" s="181">
         <v>43577</v>
       </c>
       <c r="C56" s="86">
@@ -15186,11 +15202,11 @@
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="32.25" customHeight="1">
+    <row r="57" spans="1:23" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="86">
         <v>43551</v>
       </c>
-      <c r="B57" s="86">
+      <c r="B57" s="181">
         <v>43577</v>
       </c>
       <c r="C57" s="86">
@@ -15224,11 +15240,11 @@
         <v>94</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="32.25" customHeight="1">
+    <row r="58" spans="1:23" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="86">
         <v>43551</v>
       </c>
-      <c r="B58" s="86">
+      <c r="B58" s="181">
         <v>43577</v>
       </c>
       <c r="C58" s="86">
@@ -15259,11 +15275,11 @@
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="32.25" customHeight="1">
+    <row r="59" spans="1:23" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="86">
         <v>43535</v>
       </c>
-      <c r="B59" s="86">
+      <c r="B59" s="181">
         <v>43578</v>
       </c>
       <c r="C59" s="86">
@@ -15295,11 +15311,11 @@
         <v>737</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="35.25" customHeight="1">
+    <row r="60" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="86">
         <v>43556</v>
       </c>
-      <c r="B60" s="86">
+      <c r="B60" s="181">
         <v>43578</v>
       </c>
       <c r="C60" s="86">
@@ -15333,11 +15349,11 @@
         <v>94</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="35.25" customHeight="1">
+    <row r="61" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="86">
         <v>43556</v>
       </c>
-      <c r="B61" s="86">
+      <c r="B61" s="181">
         <v>43578</v>
       </c>
       <c r="C61" s="86">
@@ -15371,11 +15387,11 @@
         <v>94</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="35.25" customHeight="1">
+    <row r="62" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="86">
         <v>43530</v>
       </c>
-      <c r="B62" s="86">
+      <c r="B62" s="181">
         <v>43581</v>
       </c>
       <c r="C62" s="86">
@@ -15409,11 +15425,11 @@
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="35.25" customHeight="1">
+    <row r="63" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="86">
         <v>43539</v>
       </c>
-      <c r="B63" s="86">
+      <c r="B63" s="181">
         <v>43581</v>
       </c>
       <c r="C63" s="86">
@@ -15444,11 +15460,11 @@
         <v>94</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="35.25" customHeight="1">
+    <row r="64" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="86">
         <v>43552</v>
       </c>
-      <c r="B64" s="86">
+      <c r="B64" s="181">
         <v>43582</v>
       </c>
       <c r="C64" s="86">
@@ -15485,11 +15501,11 @@
         <v>747</v>
       </c>
     </row>
-    <row r="65" spans="1:23" ht="27.75" customHeight="1">
+    <row r="65" spans="1:23" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="86">
         <v>43545</v>
       </c>
-      <c r="B65" s="86">
+      <c r="B65" s="181">
         <v>43585</v>
       </c>
       <c r="C65" s="86">
@@ -15520,11 +15536,11 @@
         <v>94</v>
       </c>
     </row>
-    <row r="66" spans="1:23" ht="27.75" customHeight="1">
+    <row r="66" spans="1:23" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="86">
         <v>43545</v>
       </c>
-      <c r="B66" s="86">
+      <c r="B66" s="181">
         <v>43585</v>
       </c>
       <c r="C66" s="86">
@@ -15558,11 +15574,11 @@
         <v>752</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="32.25" customHeight="1">
+    <row r="67" spans="1:23" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="86">
         <v>43556</v>
       </c>
-      <c r="B67" s="86">
+      <c r="B67" s="181">
         <v>43586</v>
       </c>
       <c r="C67" s="86">
@@ -15593,8 +15609,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="27.75" customHeight="1">
-      <c r="B68" s="86">
+    <row r="68" spans="1:23" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="181">
         <v>43593</v>
       </c>
       <c r="C68" s="86">
@@ -15628,11 +15644,11 @@
         <v>758</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="27.75" customHeight="1">
+    <row r="69" spans="1:23" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="86">
         <v>43552</v>
       </c>
-      <c r="B69" s="86">
+      <c r="B69" s="181">
         <v>43619</v>
       </c>
       <c r="C69" s="86">
@@ -15667,11 +15683,11 @@
         <v>763</v>
       </c>
     </row>
-    <row r="70" spans="1:23" s="99" customFormat="1" ht="31.5" customHeight="1">
+    <row r="70" spans="1:23" s="99" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="86">
         <v>43552</v>
       </c>
-      <c r="B70" s="86">
+      <c r="B70" s="181">
         <v>43619</v>
       </c>
       <c r="C70" s="86">
@@ -15716,11 +15732,11 @@
       <c r="V70" s="89"/>
       <c r="W70" s="89"/>
     </row>
-    <row r="71" spans="1:23" ht="37.5" customHeight="1">
+    <row r="71" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="86">
         <v>43476</v>
       </c>
-      <c r="B71" s="116">
+      <c r="B71" s="183">
         <v>43633</v>
       </c>
       <c r="C71" s="105">
@@ -15754,11 +15770,11 @@
         <v>765</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="30" customHeight="1">
+    <row r="72" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="87">
         <v>43530</v>
       </c>
-      <c r="B72" s="87">
+      <c r="B72" s="184">
         <v>43678</v>
       </c>
       <c r="C72" s="87">
@@ -15773,7 +15789,7 @@
       <c r="F72" s="89" t="s">
         <v>767</v>
       </c>
-      <c r="G72" s="179" t="s">
+      <c r="G72" s="178" t="s">
         <v>768</v>
       </c>
       <c r="H72" s="121" t="s">
@@ -15794,11 +15810,11 @@
         <v>770</v>
       </c>
     </row>
-    <row r="73" spans="1:23" ht="31.5" customHeight="1">
+    <row r="73" spans="1:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="120">
         <v>43523</v>
       </c>
-      <c r="B73" s="174">
+      <c r="B73" s="185">
         <v>43695</v>
       </c>
       <c r="C73" s="121"/>
@@ -15833,11 +15849,11 @@
       <c r="Q73" s="121"/>
       <c r="R73" s="121"/>
     </row>
-    <row r="74" spans="1:23" ht="27.75" customHeight="1">
+    <row r="74" spans="1:23" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="86">
         <v>43508</v>
       </c>
-      <c r="B74" s="86" t="s">
+      <c r="B74" s="181" t="s">
         <v>778</v>
       </c>
       <c r="C74" s="86"/>
@@ -15869,11 +15885,11 @@
         <v>782</v>
       </c>
     </row>
-    <row r="75" spans="1:23" ht="33.75" customHeight="1">
+    <row r="75" spans="1:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="86">
         <v>43543</v>
       </c>
-      <c r="B75" s="86" t="s">
+      <c r="B75" s="181" t="s">
         <v>783</v>
       </c>
       <c r="C75" s="86">
@@ -15911,11 +15927,11 @@
         <v>787</v>
       </c>
     </row>
-    <row r="76" spans="1:23" ht="39" customHeight="1">
+    <row r="76" spans="1:23" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="117" t="s">
         <v>788</v>
       </c>
-      <c r="B76" s="89" t="s">
+      <c r="B76" s="181" t="s">
         <v>789</v>
       </c>
       <c r="D76" s="88" t="s">
@@ -15934,11 +15950,11 @@
         <v>792</v>
       </c>
     </row>
-    <row r="77" spans="1:23" s="121" customFormat="1" ht="34.5" customHeight="1">
+    <row r="77" spans="1:23" s="121" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="86">
         <v>43452</v>
       </c>
-      <c r="B77" s="86" t="s">
+      <c r="B77" s="181" t="s">
         <v>793</v>
       </c>
       <c r="C77" s="86"/>
@@ -15978,11 +15994,11 @@
       <c r="Q77" s="89"/>
       <c r="R77" s="89"/>
     </row>
-    <row r="78" spans="1:23" ht="29.25" customHeight="1">
+    <row r="78" spans="1:23" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="86">
         <v>43503</v>
       </c>
-      <c r="B78" s="86" t="s">
+      <c r="B78" s="181" t="s">
         <v>797</v>
       </c>
       <c r="C78" s="86"/>
@@ -16013,11 +16029,11 @@
       <c r="Q78" s="99"/>
       <c r="R78" s="99"/>
     </row>
-    <row r="79" spans="1:23" ht="24" customHeight="1">
+    <row r="79" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="87">
         <v>43511</v>
       </c>
-      <c r="B79" s="87" t="s">
+      <c r="B79" s="184" t="s">
         <v>801</v>
       </c>
       <c r="C79" s="87"/>
@@ -16059,11 +16075,10 @@
       <c r="V79" s="99"/>
       <c r="W79" s="99"/>
     </row>
-    <row r="80" spans="1:23" ht="32.25" customHeight="1">
+    <row r="80" spans="1:23" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="86">
         <v>43424</v>
       </c>
-      <c r="B80" s="86"/>
       <c r="C80" s="86"/>
       <c r="D80" s="88" t="s">
         <v>804</v>
@@ -16093,8 +16108,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="81" spans="2:23" ht="23.25" customHeight="1">
-      <c r="B81" s="86"/>
+    <row r="81" spans="3:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C81" s="86"/>
       <c r="D81" s="88" t="s">
         <v>806</v>
@@ -16144,28 +16158,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A41162A5-9138-4826-B5BA-97A5FDE25B00}">
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{0EBFE303-C339-5F39-9709-F25100631179}">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="5" customFormat="1" ht="30">
+    <row r="1" spans="1:23" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -16212,7 +16225,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="89" customFormat="1" ht="42.75">
+    <row r="2" spans="1:23" s="89" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A2" s="86">
         <v>43544</v>
       </c>
@@ -16253,7 +16266,7 @@
       <c r="N2" s="90"/>
       <c r="O2" s="90"/>
     </row>
-    <row r="3" spans="1:23" s="89" customFormat="1" ht="30" customHeight="1">
+    <row r="3" spans="1:23" s="89" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="86">
         <v>43535</v>
       </c>
@@ -16293,7 +16306,7 @@
       <c r="O3" s="90"/>
       <c r="P3" s="95"/>
     </row>
-    <row r="4" spans="1:23" s="89" customFormat="1" ht="27.75" customHeight="1">
+    <row r="4" spans="1:23" s="89" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="86">
         <v>43543</v>
       </c>
@@ -16318,7 +16331,7 @@
       <c r="H4" s="168" t="s">
         <v>817</v>
       </c>
-      <c r="I4" s="178"/>
+      <c r="I4" s="177"/>
       <c r="J4" s="95" t="s">
         <v>598</v>
       </c>
@@ -16342,7 +16355,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="89" customFormat="1" ht="30" customHeight="1">
+    <row r="5" spans="1:23" s="89" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="86">
         <v>43539</v>
       </c>
@@ -16388,7 +16401,7 @@
       <c r="V5" s="98"/>
       <c r="W5" s="98"/>
     </row>
-    <row r="6" spans="1:23" s="98" customFormat="1" ht="45" customHeight="1">
+    <row r="6" spans="1:23" s="98" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="86">
         <v>43545</v>
       </c>
@@ -16436,7 +16449,7 @@
       <c r="V6" s="89"/>
       <c r="W6" s="89"/>
     </row>
-    <row r="7" spans="1:23" s="89" customFormat="1" ht="30" customHeight="1">
+    <row r="7" spans="1:23" s="89" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="86">
         <v>43535</v>
       </c>
@@ -16478,7 +16491,7 @@
       <c r="O7" s="90"/>
       <c r="P7" s="95"/>
     </row>
-    <row r="8" spans="1:23" s="89" customFormat="1" ht="30" customHeight="1">
+    <row r="8" spans="1:23" s="89" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="105">
         <v>43535</v>
       </c>
@@ -16527,7 +16540,7 @@
       <c r="V8" s="98"/>
       <c r="W8" s="98"/>
     </row>
-    <row r="9" spans="1:23" s="98" customFormat="1" ht="45" customHeight="1">
+    <row r="9" spans="1:23" s="98" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="105">
         <v>43546</v>
       </c>
@@ -16567,7 +16580,7 @@
       <c r="N9" s="106"/>
       <c r="O9" s="106"/>
     </row>
-    <row r="10" spans="1:23" s="89" customFormat="1" ht="30" customHeight="1">
+    <row r="10" spans="1:23" s="89" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="86">
         <v>43536</v>
       </c>
@@ -16624,25 +16637,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{880C74E8-425D-4405-AAE1-DA53566A561B}">
   <dimension ref="A1:Q116"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{BC46361F-EDCE-5F4A-88C5-2BA7AC61CF66}">
-      <pane ySplit="1" topLeftCell="C11" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="52.42578125" customWidth="1"/>
+    <col min="15" max="15" width="52.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="5" customFormat="1" ht="15.95">
+    <row r="1" spans="1:15" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -16689,7 +16702,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="3" customFormat="1" ht="32.1">
+    <row r="2" spans="1:15" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43452</v>
       </c>
@@ -16724,7 +16737,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="20" customFormat="1" ht="75">
+    <row r="3" spans="1:15" s="20" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" s="18">
         <v>43452</v>
       </c>
@@ -16759,7 +16772,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="3" customFormat="1" ht="32.1">
+    <row r="4" spans="1:15" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43468</v>
       </c>
@@ -16795,7 +16808,7 @@
       </c>
       <c r="O4" s="4"/>
     </row>
-    <row r="5" spans="1:15" s="3" customFormat="1" ht="48">
+    <row r="5" spans="1:15" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43469</v>
       </c>
@@ -16830,7 +16843,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="3" customFormat="1" ht="48">
+    <row r="6" spans="1:15" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43469</v>
       </c>
@@ -16865,7 +16878,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="3" customFormat="1" ht="32.1">
+    <row r="7" spans="1:15" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43474</v>
       </c>
@@ -16900,7 +16913,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="3" customFormat="1" ht="32.1">
+    <row r="8" spans="1:15" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43474</v>
       </c>
@@ -16933,7 +16946,7 @@
       </c>
       <c r="O8" s="4"/>
     </row>
-    <row r="9" spans="1:15" s="3" customFormat="1" ht="32.1">
+    <row r="9" spans="1:15" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43475</v>
       </c>
@@ -16962,7 +16975,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="3" customFormat="1" ht="32.1">
+    <row r="10" spans="1:15" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43475</v>
       </c>
@@ -17000,7 +17013,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="3" customFormat="1" ht="32.1">
+    <row r="11" spans="1:15" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="18">
         <v>43475</v>
       </c>
@@ -17039,7 +17052,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="3" customFormat="1" ht="32.1">
+    <row r="12" spans="1:15" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43475</v>
       </c>
@@ -17069,7 +17082,7 @@
       </c>
       <c r="O12" s="4"/>
     </row>
-    <row r="13" spans="1:15" s="3" customFormat="1" ht="32.1">
+    <row r="13" spans="1:15" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43476</v>
       </c>
@@ -17099,7 +17112,7 @@
       </c>
       <c r="O13" s="4"/>
     </row>
-    <row r="14" spans="1:15" s="3" customFormat="1" ht="32.1">
+    <row r="14" spans="1:15" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43476</v>
       </c>
@@ -17132,7 +17145,7 @@
       </c>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" spans="1:15" s="3" customFormat="1" ht="32.1">
+    <row r="15" spans="1:15" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43483</v>
       </c>
@@ -17168,7 +17181,7 @@
       </c>
       <c r="O15" s="4"/>
     </row>
-    <row r="16" spans="1:15" s="3" customFormat="1" ht="32.1">
+    <row r="16" spans="1:15" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43486</v>
       </c>
@@ -17204,7 +17217,7 @@
       </c>
       <c r="O16" s="4"/>
     </row>
-    <row r="17" spans="1:15" s="3" customFormat="1" ht="32.1">
+    <row r="17" spans="1:15" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43486</v>
       </c>
@@ -17240,7 +17253,7 @@
       </c>
       <c r="O17" s="4"/>
     </row>
-    <row r="18" spans="1:15" s="3" customFormat="1" ht="32.1">
+    <row r="18" spans="1:15" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43486</v>
       </c>
@@ -17276,7 +17289,7 @@
       </c>
       <c r="O18" s="4"/>
     </row>
-    <row r="19" spans="1:15" s="40" customFormat="1" ht="32.1">
+    <row r="19" spans="1:15" s="40" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43486</v>
       </c>
@@ -17313,7 +17326,7 @@
       <c r="N19" s="3"/>
       <c r="O19" s="4"/>
     </row>
-    <row r="20" spans="1:15" s="3" customFormat="1" ht="32.1">
+    <row r="20" spans="1:15" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43487</v>
       </c>
@@ -17349,7 +17362,7 @@
       </c>
       <c r="O20" s="4"/>
     </row>
-    <row r="21" spans="1:15" s="3" customFormat="1" ht="32.1">
+    <row r="21" spans="1:15" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43488</v>
       </c>
@@ -17387,7 +17400,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="3" customFormat="1" ht="32.1">
+    <row r="22" spans="1:15" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43488</v>
       </c>
@@ -17422,7 +17435,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="3" customFormat="1" ht="32.1">
+    <row r="23" spans="1:15" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43488</v>
       </c>
@@ -17455,7 +17468,7 @@
       </c>
       <c r="O23" s="4"/>
     </row>
-    <row r="24" spans="1:15" s="11" customFormat="1" ht="32.1">
+    <row r="24" spans="1:15" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43489</v>
       </c>
@@ -17492,7 +17505,7 @@
       </c>
       <c r="O24" s="4"/>
     </row>
-    <row r="25" spans="1:15" s="3" customFormat="1" ht="32.1">
+    <row r="25" spans="1:15" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43489</v>
       </c>
@@ -17528,7 +17541,7 @@
       </c>
       <c r="O25" s="4"/>
     </row>
-    <row r="26" spans="1:15" s="3" customFormat="1" ht="32.1">
+    <row r="26" spans="1:15" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43490</v>
       </c>
@@ -17559,7 +17572,7 @@
       </c>
       <c r="O26" s="4"/>
     </row>
-    <row r="27" spans="1:15" s="3" customFormat="1" ht="48">
+    <row r="27" spans="1:15" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43493</v>
       </c>
@@ -17595,7 +17608,7 @@
       </c>
       <c r="O27" s="4"/>
     </row>
-    <row r="28" spans="1:15" s="3" customFormat="1" ht="32.1">
+    <row r="28" spans="1:15" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="35">
         <v>43493</v>
       </c>
@@ -17630,7 +17643,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="3" customFormat="1" ht="32.1">
+    <row r="29" spans="1:15" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43494</v>
       </c>
@@ -17666,7 +17679,7 @@
       </c>
       <c r="O29" s="4"/>
     </row>
-    <row r="30" spans="1:15" s="11" customFormat="1" ht="32.1">
+    <row r="30" spans="1:15" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43495</v>
       </c>
@@ -17707,7 +17720,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="3" customFormat="1" ht="63.95">
+    <row r="31" spans="1:15" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43495</v>
       </c>
@@ -17745,7 +17758,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="3" customFormat="1" ht="63.95">
+    <row r="32" spans="1:15" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A32" s="28">
         <v>43495</v>
       </c>
@@ -17782,7 +17795,7 @@
       </c>
       <c r="O32" s="29"/>
     </row>
-    <row r="33" spans="1:15" s="3" customFormat="1" ht="63.95">
+    <row r="33" spans="1:15" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="46">
         <v>43495</v>
       </c>
@@ -17819,7 +17832,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="34" spans="1:15" s="3" customFormat="1" ht="63.95">
+    <row r="34" spans="1:15" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A34" s="47">
         <v>43496</v>
       </c>
@@ -17858,7 +17871,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="20" customFormat="1" ht="63.95">
+    <row r="35" spans="1:15" s="20" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A35" s="47">
         <v>43496</v>
       </c>
@@ -17899,7 +17912,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="45" customFormat="1" ht="33.75" customHeight="1">
+    <row r="36" spans="1:15" s="45" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>43496</v>
       </c>
@@ -17936,7 +17949,7 @@
       <c r="N36" s="3"/>
       <c r="O36" s="4"/>
     </row>
-    <row r="37" spans="1:15" s="3" customFormat="1" ht="48">
+    <row r="37" spans="1:15" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>43496</v>
       </c>
@@ -17969,7 +17982,7 @@
       </c>
       <c r="O37" s="4"/>
     </row>
-    <row r="38" spans="1:15" s="3" customFormat="1" ht="48">
+    <row r="38" spans="1:15" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>43497</v>
       </c>
@@ -18002,7 +18015,7 @@
       </c>
       <c r="O38" s="4"/>
     </row>
-    <row r="39" spans="1:15" s="3" customFormat="1" ht="32.1">
+    <row r="39" spans="1:15" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>43501</v>
       </c>
@@ -18035,7 +18048,7 @@
       </c>
       <c r="O39" s="4"/>
     </row>
-    <row r="40" spans="1:15" s="3" customFormat="1" ht="63.95">
+    <row r="40" spans="1:15" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="47">
         <v>43502</v>
       </c>
@@ -18072,7 +18085,7 @@
       </c>
       <c r="O40" s="48"/>
     </row>
-    <row r="41" spans="1:15" s="40" customFormat="1" ht="48">
+    <row r="41" spans="1:15" s="40" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1">
         <v>43497</v>
@@ -18111,7 +18124,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="42" spans="1:15" s="3" customFormat="1" ht="32.1">
+    <row r="42" spans="1:15" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B42" s="1">
         <v>43500</v>
       </c>
@@ -18143,7 +18156,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="43" spans="1:15" s="3" customFormat="1" ht="48">
+    <row r="43" spans="1:15" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>43483</v>
       </c>
@@ -18176,7 +18189,7 @@
       </c>
       <c r="O43" s="4"/>
     </row>
-    <row r="44" spans="1:15" s="3" customFormat="1" ht="32.1">
+    <row r="44" spans="1:15" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43474</v>
       </c>
@@ -18212,7 +18225,7 @@
       </c>
       <c r="O44" s="4"/>
     </row>
-    <row r="45" spans="1:15" s="3" customFormat="1" ht="48">
+    <row r="45" spans="1:15" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1">
         <v>43507</v>
@@ -18237,7 +18250,7 @@
       </c>
       <c r="O45" s="4"/>
     </row>
-    <row r="46" spans="1:15" s="3" customFormat="1" ht="32.1">
+    <row r="46" spans="1:15" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>43483</v>
       </c>
@@ -18273,7 +18286,7 @@
       </c>
       <c r="O46" s="4"/>
     </row>
-    <row r="47" spans="1:15" s="3" customFormat="1" ht="32.1">
+    <row r="47" spans="1:15" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>43483</v>
       </c>
@@ -18309,7 +18322,7 @@
       </c>
       <c r="O47" s="4"/>
     </row>
-    <row r="48" spans="1:15" s="3" customFormat="1" ht="32.1">
+    <row r="48" spans="1:15" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>43486</v>
       </c>
@@ -18344,7 +18357,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="49" spans="1:16" s="20" customFormat="1" ht="48">
+    <row r="49" spans="1:16" s="20" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A49" s="18">
         <v>43493</v>
       </c>
@@ -18379,7 +18392,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="50" spans="1:16" s="20" customFormat="1" ht="48">
+    <row r="50" spans="1:16" s="20" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A50" s="18">
         <v>43493</v>
       </c>
@@ -18414,7 +18427,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="51" spans="1:16" s="3" customFormat="1" ht="48">
+    <row r="51" spans="1:16" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A51" s="18">
         <v>43482</v>
       </c>
@@ -18451,7 +18464,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="52" spans="1:16" s="3" customFormat="1" ht="32.1">
+    <row r="52" spans="1:16" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>43489</v>
       </c>
@@ -18487,7 +18500,7 @@
       </c>
       <c r="O52" s="4"/>
     </row>
-    <row r="53" spans="1:16" s="3" customFormat="1" ht="32.1">
+    <row r="53" spans="1:16" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>43501</v>
       </c>
@@ -18523,7 +18536,7 @@
       </c>
       <c r="O53" s="4"/>
     </row>
-    <row r="54" spans="1:16" s="3" customFormat="1" ht="48">
+    <row r="54" spans="1:16" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>43494</v>
       </c>
@@ -18553,7 +18566,7 @@
       </c>
       <c r="O54" s="4"/>
     </row>
-    <row r="55" spans="1:16" s="20" customFormat="1" ht="54" customHeight="1">
+    <row r="55" spans="1:16" s="20" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>43494</v>
       </c>
@@ -18588,7 +18601,7 @@
       <c r="N55" s="3"/>
       <c r="O55" s="4"/>
     </row>
-    <row r="56" spans="1:16" s="3" customFormat="1" ht="48">
+    <row r="56" spans="1:16" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>43497</v>
       </c>
@@ -18623,7 +18636,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="57" spans="1:16" s="3" customFormat="1" ht="32.1">
+    <row r="57" spans="1:16" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>43496</v>
       </c>
@@ -18656,7 +18669,7 @@
       </c>
       <c r="N57" s="4"/>
     </row>
-    <row r="58" spans="1:16" s="3" customFormat="1" ht="32.1">
+    <row r="58" spans="1:16" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>43502</v>
       </c>
@@ -18689,7 +18702,7 @@
       </c>
       <c r="N58" s="4"/>
     </row>
-    <row r="59" spans="1:16" s="3" customFormat="1" ht="48">
+    <row r="59" spans="1:16" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1">
         <v>43510</v>
@@ -18714,7 +18727,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="60" spans="1:16" s="3" customFormat="1" ht="15.95">
+    <row r="60" spans="1:16" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>43480</v>
       </c>
@@ -18750,7 +18763,7 @@
       </c>
       <c r="N60" s="4"/>
     </row>
-    <row r="61" spans="1:16" s="3" customFormat="1" ht="32.1">
+    <row r="61" spans="1:16" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>43507</v>
       </c>
@@ -18788,7 +18801,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="62" spans="1:16" s="3" customFormat="1" ht="159.94999999999999">
+    <row r="62" spans="1:16" s="3" customFormat="1" ht="160" x14ac:dyDescent="0.2">
       <c r="A62" s="18">
         <v>43503</v>
       </c>
@@ -18828,7 +18841,7 @@
       <c r="O62" s="20"/>
       <c r="P62" s="20"/>
     </row>
-    <row r="63" spans="1:16" s="3" customFormat="1" ht="48">
+    <row r="63" spans="1:16" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>43493</v>
       </c>
@@ -18864,7 +18877,7 @@
       </c>
       <c r="N63" s="4"/>
     </row>
-    <row r="64" spans="1:16" s="3" customFormat="1" ht="32.1">
+    <row r="64" spans="1:16" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>43507</v>
       </c>
@@ -18902,7 +18915,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="3" customFormat="1" ht="32.1">
+    <row r="65" spans="1:16" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>43480</v>
       </c>
@@ -18937,7 +18950,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="66" spans="1:16" s="3" customFormat="1" ht="159.94999999999999">
+    <row r="66" spans="1:16" s="3" customFormat="1" ht="160" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>43496</v>
       </c>
@@ -18975,7 +18988,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="67" spans="1:16" s="3" customFormat="1" ht="32.1">
+    <row r="67" spans="1:16" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>43501</v>
       </c>
@@ -19011,7 +19024,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="68" spans="1:16" s="3" customFormat="1" ht="32.1">
+    <row r="68" spans="1:16" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>43490</v>
       </c>
@@ -19044,7 +19057,7 @@
       </c>
       <c r="N68" s="4"/>
     </row>
-    <row r="69" spans="1:16" s="3" customFormat="1" ht="32.1">
+    <row r="69" spans="1:16" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>43503</v>
       </c>
@@ -19079,7 +19092,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="70" spans="1:16" s="54" customFormat="1" ht="63.95">
+    <row r="70" spans="1:16" s="54" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A70" s="62">
         <v>43500</v>
       </c>
@@ -19117,7 +19130,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="71" spans="1:16" s="3" customFormat="1" ht="48">
+    <row r="71" spans="1:16" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>43482</v>
       </c>
@@ -19149,7 +19162,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="72" spans="1:16" s="3" customFormat="1" ht="48">
+    <row r="72" spans="1:16" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>43482</v>
       </c>
@@ -19181,7 +19194,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="73" spans="1:16" s="20" customFormat="1" ht="207.95">
+    <row r="73" spans="1:16" s="20" customFormat="1" ht="208" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>43489</v>
       </c>
@@ -19225,7 +19238,7 @@
       <c r="O73" s="3"/>
       <c r="P73" s="3"/>
     </row>
-    <row r="74" spans="1:16" s="3" customFormat="1" ht="176.1">
+    <row r="74" spans="1:16" s="3" customFormat="1" ht="176" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>43490</v>
       </c>
@@ -19266,7 +19279,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="75" spans="1:16" s="3" customFormat="1" ht="207.95">
+    <row r="75" spans="1:16" s="3" customFormat="1" ht="208" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>43489</v>
       </c>
@@ -19307,7 +19320,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="76" spans="1:16" s="3" customFormat="1" ht="32.1">
+    <row r="76" spans="1:16" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>43482</v>
       </c>
@@ -19340,7 +19353,7 @@
       </c>
       <c r="N76" s="4"/>
     </row>
-    <row r="77" spans="1:16" s="3" customFormat="1" ht="15.95">
+    <row r="77" spans="1:16" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>43497</v>
       </c>
@@ -19373,7 +19386,7 @@
       </c>
       <c r="N77" s="4"/>
     </row>
-    <row r="78" spans="1:16" s="3" customFormat="1" ht="32.1">
+    <row r="78" spans="1:16" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A78" s="35">
         <v>43487</v>
       </c>
@@ -19408,7 +19421,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="79" spans="1:16" s="3" customFormat="1" ht="32.1">
+    <row r="79" spans="1:16" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>43483</v>
       </c>
@@ -19443,7 +19456,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="80" spans="1:16" s="3" customFormat="1" ht="303.95">
+    <row r="80" spans="1:16" s="3" customFormat="1" ht="304" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>43494</v>
       </c>
@@ -19481,7 +19494,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="81" spans="1:14" s="3" customFormat="1" ht="128.1">
+    <row r="81" spans="1:14" s="3" customFormat="1" ht="128" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>43495</v>
       </c>
@@ -19516,7 +19529,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="82" spans="1:14" s="3" customFormat="1" ht="32.1">
+    <row r="82" spans="1:14" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A82" s="35">
         <v>43495</v>
       </c>
@@ -19552,7 +19565,7 @@
       </c>
       <c r="N82" s="4"/>
     </row>
-    <row r="83" spans="1:14" s="3" customFormat="1" ht="63.95">
+    <row r="83" spans="1:14" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>969</v>
       </c>
@@ -19587,7 +19600,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="84" spans="1:14" s="3" customFormat="1" ht="32.1">
+    <row r="84" spans="1:14" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A84" s="35">
         <v>43490</v>
       </c>
@@ -19622,7 +19635,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="85" spans="1:14" s="3" customFormat="1" ht="72" customHeight="1">
+    <row r="85" spans="1:14" s="3" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1">
         <v>43515</v>
@@ -19655,7 +19668,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="86" spans="1:14" s="3" customFormat="1" ht="335.1">
+    <row r="86" spans="1:14" s="3" customFormat="1" ht="335" x14ac:dyDescent="0.2">
       <c r="A86" s="28"/>
       <c r="B86" s="1">
         <v>43516</v>
@@ -19682,7 +19695,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="87" spans="1:14" s="3" customFormat="1" ht="48">
+    <row r="87" spans="1:14" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A87" s="35">
         <v>43496</v>
       </c>
@@ -19709,7 +19722,7 @@
       </c>
       <c r="N87" s="4"/>
     </row>
-    <row r="88" spans="1:14" s="20" customFormat="1" ht="32.1">
+    <row r="88" spans="1:14" s="20" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A88" s="18">
         <v>43502</v>
       </c>
@@ -19744,7 +19757,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="89" spans="1:14" s="3" customFormat="1" ht="15.95">
+    <row r="89" spans="1:14" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="35">
         <v>43500</v>
       </c>
@@ -19777,7 +19790,7 @@
       </c>
       <c r="N89" s="4"/>
     </row>
-    <row r="91" spans="1:14" s="3" customFormat="1" ht="32.1">
+    <row r="91" spans="1:14" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A91" s="35">
         <v>43508</v>
       </c>
@@ -19815,7 +19828,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="92" spans="1:14" s="3" customFormat="1" ht="57" customHeight="1">
+    <row r="92" spans="1:14" s="3" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="35">
         <v>43493</v>
       </c>
@@ -19851,7 +19864,7 @@
       </c>
       <c r="N92" s="4"/>
     </row>
-    <row r="93" spans="1:14" s="3" customFormat="1" ht="32.1">
+    <row r="93" spans="1:14" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A93" s="35">
         <v>43495</v>
       </c>
@@ -19884,7 +19897,7 @@
       </c>
       <c r="N93" s="4"/>
     </row>
-    <row r="94" spans="1:14" s="3" customFormat="1" ht="32.1">
+    <row r="94" spans="1:14" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A94" s="35">
         <v>43504</v>
       </c>
@@ -19920,7 +19933,7 @@
       </c>
       <c r="N94" s="4"/>
     </row>
-    <row r="95" spans="1:14" s="3" customFormat="1" ht="45.75" customHeight="1">
+    <row r="95" spans="1:14" s="3" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="35">
         <v>43496</v>
       </c>
@@ -19956,7 +19969,7 @@
       </c>
       <c r="N95" s="4"/>
     </row>
-    <row r="96" spans="1:14" s="3" customFormat="1" ht="32.1">
+    <row r="96" spans="1:14" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="35">
         <v>43495</v>
       </c>
@@ -19992,7 +20005,7 @@
       </c>
       <c r="N96" s="4"/>
     </row>
-    <row r="97" spans="1:17" s="3" customFormat="1" ht="210">
+    <row r="97" spans="1:17" s="3" customFormat="1" ht="192" x14ac:dyDescent="0.2">
       <c r="A97" s="35">
         <v>43501</v>
       </c>
@@ -20030,7 +20043,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="98" spans="1:17" s="3" customFormat="1" ht="15.95">
+    <row r="98" spans="1:17" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="35">
         <v>43500</v>
       </c>
@@ -20066,7 +20079,7 @@
       </c>
       <c r="N98" s="4"/>
     </row>
-    <row r="99" spans="1:17" s="3" customFormat="1" ht="32.1">
+    <row r="99" spans="1:17" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="35">
         <v>43495</v>
       </c>
@@ -20102,7 +20115,7 @@
       </c>
       <c r="N99" s="4"/>
     </row>
-    <row r="100" spans="1:17" s="72" customFormat="1">
+    <row r="100" spans="1:17" s="72" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="70"/>
       <c r="B100" s="70"/>
       <c r="C100" s="71"/>
@@ -20112,7 +20125,7 @@
       <c r="L100" s="73"/>
       <c r="N100" s="74"/>
     </row>
-    <row r="101" spans="1:17" s="75" customFormat="1" ht="48">
+    <row r="101" spans="1:17" s="75" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A101" s="75" t="s">
         <v>0</v>
       </c>
@@ -20159,7 +20172,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:17" s="3" customFormat="1" ht="32.1">
+    <row r="102" spans="1:17" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="1">
         <v>43518</v>
@@ -20187,7 +20200,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="103" spans="1:17" s="3" customFormat="1" ht="63.95">
+    <row r="103" spans="1:17" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>43504</v>
       </c>
@@ -20228,7 +20241,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="104" spans="1:17" s="3" customFormat="1" ht="32.1">
+    <row r="104" spans="1:17" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>43508</v>
       </c>
@@ -20264,7 +20277,7 @@
       </c>
       <c r="O104" s="4"/>
     </row>
-    <row r="105" spans="1:17" s="3" customFormat="1" ht="32.1">
+    <row r="105" spans="1:17" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>43496</v>
       </c>
@@ -20303,7 +20316,7 @@
       </c>
       <c r="O105" s="4"/>
     </row>
-    <row r="106" spans="1:17" s="3" customFormat="1" ht="48">
+    <row r="106" spans="1:17" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>43511</v>
       </c>
@@ -20345,7 +20358,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="107" spans="1:17" s="11" customFormat="1" ht="96">
+    <row r="107" spans="1:17" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A107" s="47">
         <v>43507</v>
       </c>
@@ -20381,7 +20394,7 @@
       </c>
       <c r="O107" s="15"/>
     </row>
-    <row r="108" spans="1:17" s="16" customFormat="1" ht="80.099999999999994">
+    <row r="108" spans="1:17" s="16" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A108" s="35">
         <v>43504</v>
       </c>
@@ -20422,7 +20435,7 @@
       </c>
       <c r="O108" s="14"/>
     </row>
-    <row r="109" spans="1:17" s="3" customFormat="1" ht="48">
+    <row r="109" spans="1:17" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>43489</v>
       </c>
@@ -20461,7 +20474,7 @@
       </c>
       <c r="O109" s="4"/>
     </row>
-    <row r="110" spans="1:17" s="3" customFormat="1" ht="48">
+    <row r="110" spans="1:17" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>43507</v>
       </c>
@@ -20498,7 +20511,7 @@
       </c>
       <c r="O110" s="2"/>
     </row>
-    <row r="111" spans="1:17" s="3" customFormat="1" ht="48">
+    <row r="111" spans="1:17" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A111" s="18">
         <v>43397</v>
       </c>
@@ -20537,7 +20550,7 @@
       <c r="P111" s="20"/>
       <c r="Q111" s="20"/>
     </row>
-    <row r="112" spans="1:17" s="3" customFormat="1" ht="42" customHeight="1">
+    <row r="112" spans="1:17" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>43497</v>
       </c>
@@ -20575,7 +20588,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="113" spans="1:17" s="16" customFormat="1" ht="30">
+    <row r="113" spans="1:17" s="16" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>43488</v>
       </c>
@@ -20616,7 +20629,7 @@
       <c r="P113" s="3"/>
       <c r="Q113" s="3"/>
     </row>
-    <row r="114" spans="1:17" s="79" customFormat="1" ht="99.95">
+    <row r="114" spans="1:17" s="79" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A114" s="80">
         <v>43511</v>
       </c>
@@ -20656,7 +20669,7 @@
       </c>
       <c r="O114" s="82"/>
     </row>
-    <row r="115" spans="1:17" s="89" customFormat="1" ht="38.1" customHeight="1">
+    <row r="115" spans="1:17" s="89" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="87">
         <v>43504</v>
       </c>
@@ -20701,7 +20714,7 @@
       <c r="P115" s="95"/>
       <c r="Q115" s="95"/>
     </row>
-    <row r="116" spans="1:17" s="89" customFormat="1" ht="39.75" customHeight="1">
+    <row r="116" spans="1:17" s="89" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="86">
         <v>43507</v>
       </c>
@@ -20762,31 +20775,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE7BEC9-6883-44A9-BD8B-5B33C80F6A32}">
   <dimension ref="A1:W115"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{19E5309D-6AF4-5BD1-93B9-C5CEBA6C85B3}">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="32.83203125" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" customWidth="1"/>
-    <col min="15" max="15" width="72.85546875" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" customWidth="1"/>
+    <col min="11" max="11" width="13.5" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" customWidth="1"/>
+    <col min="13" max="13" width="13.83203125" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" customWidth="1"/>
+    <col min="15" max="15" width="72.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="5" customFormat="1" ht="30">
+    <row r="1" spans="1:17" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -20833,7 +20846,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="89" customFormat="1" ht="36" customHeight="1">
+    <row r="2" spans="1:17" s="89" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="86">
         <v>43511</v>
       </c>
@@ -20871,7 +20884,7 @@
       </c>
       <c r="N2" s="94"/>
     </row>
-    <row r="3" spans="1:17" s="89" customFormat="1" ht="38.25" customHeight="1">
+    <row r="3" spans="1:17" s="89" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="86">
         <v>43497</v>
       </c>
@@ -20912,7 +20925,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="89" customFormat="1" ht="40.5" customHeight="1">
+    <row r="4" spans="1:17" s="89" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="86">
         <v>43493</v>
       </c>
@@ -20952,7 +20965,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="89" customFormat="1" ht="39.75" customHeight="1">
+    <row r="5" spans="1:17" s="89" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="86">
         <v>43480</v>
       </c>
@@ -20993,7 +21006,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="89" customFormat="1" ht="39" customHeight="1">
+    <row r="6" spans="1:17" s="89" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="86">
         <v>43503</v>
       </c>
@@ -21038,7 +21051,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="89" customFormat="1" ht="27.95" customHeight="1">
+    <row r="7" spans="1:17" s="89" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="86">
         <v>43511</v>
       </c>
@@ -21078,7 +21091,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="89" customFormat="1" ht="39" customHeight="1">
+    <row r="8" spans="1:17" s="89" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="86">
         <v>43501</v>
       </c>
@@ -21121,7 +21134,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="99" customFormat="1" ht="33.75" customHeight="1">
+    <row r="9" spans="1:17" s="99" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="86">
         <v>43516</v>
       </c>
@@ -21162,7 +21175,7 @@
       <c r="P9" s="89"/>
       <c r="Q9" s="89"/>
     </row>
-    <row r="10" spans="1:17" s="89" customFormat="1" ht="34.5" customHeight="1">
+    <row r="10" spans="1:17" s="89" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="86">
         <v>43473</v>
       </c>
@@ -21203,7 +21216,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="89" customFormat="1" ht="36.950000000000003" customHeight="1">
+    <row r="11" spans="1:17" s="89" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="86">
         <v>43452</v>
       </c>
@@ -21246,7 +21259,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="89" customFormat="1" ht="56.25" customHeight="1">
+    <row r="12" spans="1:17" s="89" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="86">
         <v>43514</v>
       </c>
@@ -21290,7 +21303,7 @@
       </c>
       <c r="P12" s="104"/>
     </row>
-    <row r="13" spans="1:17" s="89" customFormat="1" ht="32.25" customHeight="1">
+    <row r="13" spans="1:17" s="89" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="86">
         <v>43489</v>
       </c>
@@ -21333,7 +21346,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="89" customFormat="1" ht="33" customHeight="1">
+    <row r="14" spans="1:17" s="89" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="86">
         <v>43515</v>
       </c>
@@ -21374,7 +21387,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="98" customFormat="1" ht="29.25" customHeight="1">
+    <row r="15" spans="1:17" s="98" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="86">
         <v>43518</v>
       </c>
@@ -21417,7 +21430,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="89" customFormat="1" ht="26.25" customHeight="1">
+    <row r="16" spans="1:17" s="89" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="105">
         <v>43521</v>
       </c>
@@ -21458,7 +21471,7 @@
       </c>
       <c r="O16" s="98"/>
     </row>
-    <row r="17" spans="1:22" s="89" customFormat="1" ht="29.25" customHeight="1">
+    <row r="17" spans="1:22" s="89" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="105">
         <v>43514</v>
       </c>
@@ -21503,7 +21516,7 @@
       <c r="P17" s="98"/>
       <c r="Q17" s="98"/>
     </row>
-    <row r="18" spans="1:22" s="89" customFormat="1" ht="29.25" customHeight="1">
+    <row r="18" spans="1:22" s="89" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="86">
         <v>43518</v>
       </c>
@@ -21546,7 +21559,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="19" spans="1:22" s="117" customFormat="1" ht="41.25" customHeight="1">
+    <row r="19" spans="1:22" s="117" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="86">
         <v>43514</v>
       </c>
@@ -21591,7 +21604,7 @@
       <c r="P19" s="104"/>
       <c r="Q19" s="89"/>
     </row>
-    <row r="20" spans="1:22" s="95" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:22" s="95" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="87">
         <v>43522</v>
       </c>
@@ -21632,7 +21645,7 @@
       <c r="P20" s="98"/>
       <c r="Q20" s="98"/>
     </row>
-    <row r="21" spans="1:22" s="89" customFormat="1" ht="27.75" customHeight="1">
+    <row r="21" spans="1:22" s="89" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="105">
         <v>43514</v>
       </c>
@@ -21675,7 +21688,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="22" spans="1:22" s="98" customFormat="1" ht="32.25" customHeight="1">
+    <row r="22" spans="1:22" s="98" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="87">
         <v>43514</v>
       </c>
@@ -21720,7 +21733,7 @@
       <c r="P22" s="95"/>
       <c r="Q22" s="95"/>
     </row>
-    <row r="23" spans="1:22" s="95" customFormat="1" ht="34.5" customHeight="1">
+    <row r="23" spans="1:22" s="95" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="87">
         <v>43514</v>
       </c>
@@ -21763,7 +21776,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="24" spans="1:22" s="89" customFormat="1" ht="28.5" customHeight="1">
+    <row r="24" spans="1:22" s="89" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="86">
         <v>43517</v>
       </c>
@@ -21806,7 +21819,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="25" spans="1:22" s="98" customFormat="1" ht="47.25" customHeight="1">
+    <row r="25" spans="1:22" s="98" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="105">
         <v>43522</v>
       </c>
@@ -21844,7 +21857,7 @@
       <c r="P25" s="104"/>
       <c r="Q25" s="89"/>
     </row>
-    <row r="26" spans="1:22" s="89" customFormat="1" ht="38.25" customHeight="1">
+    <row r="26" spans="1:22" s="89" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="86">
         <v>43509</v>
       </c>
@@ -21886,7 +21899,7 @@
       <c r="P26" s="98"/>
       <c r="Q26" s="98"/>
     </row>
-    <row r="27" spans="1:22" s="89" customFormat="1" ht="26.25" customHeight="1">
+    <row r="27" spans="1:22" s="89" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="131"/>
       <c r="B27" s="131">
         <v>43531</v>
@@ -21923,7 +21936,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="28" spans="1:22" s="98" customFormat="1" ht="44.25" customHeight="1">
+    <row r="28" spans="1:22" s="98" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="86">
         <v>43515</v>
       </c>
@@ -21966,7 +21979,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="29" spans="1:22" s="89" customFormat="1" ht="43.5" customHeight="1">
+    <row r="29" spans="1:22" s="89" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="105">
         <v>43521</v>
       </c>
@@ -22009,7 +22022,7 @@
       </c>
       <c r="Q29" s="98"/>
     </row>
-    <row r="30" spans="1:22" s="89" customFormat="1" ht="74.25" customHeight="1">
+    <row r="30" spans="1:22" s="89" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="105">
         <v>43525</v>
       </c>
@@ -22052,7 +22065,7 @@
       <c r="P30" s="98"/>
       <c r="Q30" s="98"/>
     </row>
-    <row r="31" spans="1:22" s="95" customFormat="1" ht="30" customHeight="1">
+    <row r="31" spans="1:22" s="95" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="105">
         <v>43522</v>
       </c>
@@ -22100,7 +22113,7 @@
       <c r="U31" s="89"/>
       <c r="V31" s="89"/>
     </row>
-    <row r="32" spans="1:22" s="89" customFormat="1" ht="65.25" customHeight="1">
+    <row r="32" spans="1:22" s="89" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="86">
         <v>43522</v>
       </c>
@@ -22144,7 +22157,7 @@
       <c r="U32" s="117"/>
       <c r="V32" s="117"/>
     </row>
-    <row r="33" spans="1:22" s="98" customFormat="1" ht="33.75" customHeight="1">
+    <row r="33" spans="1:22" s="98" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="86">
         <v>43481</v>
       </c>
@@ -22188,7 +22201,7 @@
       <c r="U33" s="136"/>
       <c r="V33" s="136"/>
     </row>
-    <row r="34" spans="1:22" s="98" customFormat="1" ht="31.5" customHeight="1">
+    <row r="34" spans="1:22" s="98" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="105">
         <v>43522</v>
       </c>
@@ -22233,7 +22246,7 @@
       <c r="U34" s="89"/>
       <c r="V34" s="89"/>
     </row>
-    <row r="35" spans="1:22" s="89" customFormat="1" ht="33" customHeight="1">
+    <row r="35" spans="1:22" s="89" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="86">
         <v>43529</v>
       </c>
@@ -22273,7 +22286,7 @@
       <c r="P35" s="98"/>
       <c r="Q35" s="98"/>
     </row>
-    <row r="36" spans="1:22" s="136" customFormat="1" ht="31.5" customHeight="1">
+    <row r="36" spans="1:22" s="136" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="89"/>
       <c r="B36" s="87" t="s">
         <v>1090</v>
@@ -22319,7 +22332,7 @@
       <c r="U36" s="98"/>
       <c r="V36" s="98"/>
     </row>
-    <row r="37" spans="1:22" s="89" customFormat="1" ht="44.25" customHeight="1">
+    <row r="37" spans="1:22" s="89" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="105">
         <v>43524</v>
       </c>
@@ -22365,7 +22378,7 @@
       <c r="U37" s="98"/>
       <c r="V37" s="98"/>
     </row>
-    <row r="38" spans="1:22" s="89" customFormat="1" ht="60" customHeight="1">
+    <row r="38" spans="1:22" s="89" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="86">
         <v>43507</v>
       </c>
@@ -22407,7 +22420,7 @@
       <c r="U38" s="98"/>
       <c r="V38" s="98"/>
     </row>
-    <row r="39" spans="1:22" s="89" customFormat="1" ht="32.25" customHeight="1">
+    <row r="39" spans="1:22" s="89" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="86">
         <v>43530</v>
       </c>
@@ -22457,7 +22470,7 @@
       <c r="U39" s="98"/>
       <c r="V39" s="98"/>
     </row>
-    <row r="40" spans="1:22" s="89" customFormat="1" ht="33" customHeight="1">
+    <row r="40" spans="1:22" s="89" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="86">
         <v>43473</v>
       </c>
@@ -22496,7 +22509,7 @@
       </c>
       <c r="N40" s="90"/>
     </row>
-    <row r="41" spans="1:22" s="89" customFormat="1" ht="27" customHeight="1">
+    <row r="41" spans="1:22" s="89" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="86">
         <v>43511</v>
       </c>
@@ -22533,7 +22546,7 @@
       <c r="M41" s="90"/>
       <c r="N41" s="90"/>
     </row>
-    <row r="42" spans="1:22" s="98" customFormat="1" ht="24.75" customHeight="1">
+    <row r="42" spans="1:22" s="98" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="86"/>
       <c r="B42" s="86">
         <v>43535</v>
@@ -22575,7 +22588,7 @@
       <c r="U42" s="89"/>
       <c r="V42" s="89"/>
     </row>
-    <row r="43" spans="1:22" s="98" customFormat="1" ht="39.75" customHeight="1">
+    <row r="43" spans="1:22" s="98" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="86">
         <v>43529</v>
       </c>
@@ -22627,7 +22640,7 @@
       <c r="U43" s="89"/>
       <c r="V43" s="89"/>
     </row>
-    <row r="44" spans="1:22" s="89" customFormat="1" ht="37.5" customHeight="1">
+    <row r="44" spans="1:22" s="89" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="86">
         <v>43503</v>
       </c>
@@ -22665,7 +22678,7 @@
       <c r="M44" s="90"/>
       <c r="N44" s="90"/>
     </row>
-    <row r="45" spans="1:22" s="98" customFormat="1" ht="29.25" customHeight="1">
+    <row r="45" spans="1:22" s="98" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="86">
         <v>43511</v>
       </c>
@@ -22709,7 +22722,7 @@
       <c r="U45" s="95"/>
       <c r="V45" s="95"/>
     </row>
-    <row r="46" spans="1:22" s="98" customFormat="1" ht="37.5" customHeight="1">
+    <row r="46" spans="1:22" s="98" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="105">
         <v>43522</v>
       </c>
@@ -22757,7 +22770,7 @@
       <c r="U46" s="89"/>
       <c r="V46" s="89"/>
     </row>
-    <row r="47" spans="1:22" s="89" customFormat="1" ht="33" customHeight="1">
+    <row r="47" spans="1:22" s="89" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="105">
         <v>43522</v>
       </c>
@@ -22807,7 +22820,7 @@
       <c r="U47" s="98"/>
       <c r="V47" s="98"/>
     </row>
-    <row r="48" spans="1:22" s="95" customFormat="1" ht="34.5" customHeight="1">
+    <row r="48" spans="1:22" s="95" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="86">
         <v>43515</v>
       </c>
@@ -22859,7 +22872,7 @@
       <c r="U48" s="89"/>
       <c r="V48" s="89"/>
     </row>
-    <row r="49" spans="1:22" s="117" customFormat="1" ht="41.25" customHeight="1">
+    <row r="49" spans="1:22" s="117" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="86">
         <v>43529</v>
       </c>
@@ -22911,7 +22924,7 @@
       <c r="U49" s="89"/>
       <c r="V49" s="89"/>
     </row>
-    <row r="50" spans="1:22" s="89" customFormat="1" ht="36" customHeight="1">
+    <row r="50" spans="1:22" s="89" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="86">
         <v>43523</v>
       </c>
@@ -22956,7 +22969,7 @@
       <c r="U50" s="98"/>
       <c r="V50" s="98"/>
     </row>
-    <row r="51" spans="1:22" s="89" customFormat="1" ht="28.5" customHeight="1">
+    <row r="51" spans="1:22" s="89" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="105">
         <v>43515</v>
       </c>
@@ -23004,7 +23017,7 @@
       <c r="U51" s="98"/>
       <c r="V51" s="98"/>
     </row>
-    <row r="52" spans="1:22" s="89" customFormat="1" ht="42.75" customHeight="1">
+    <row r="52" spans="1:22" s="89" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="86" t="s">
         <v>1133</v>
       </c>
@@ -23043,7 +23056,7 @@
       </c>
       <c r="N52" s="90"/>
     </row>
-    <row r="53" spans="1:22" s="89" customFormat="1" ht="27" customHeight="1">
+    <row r="53" spans="1:22" s="89" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="87">
         <v>43528</v>
       </c>
@@ -23088,7 +23101,7 @@
       <c r="P53" s="95"/>
       <c r="Q53" s="95"/>
     </row>
-    <row r="54" spans="1:22" s="98" customFormat="1" ht="28.5" customHeight="1">
+    <row r="54" spans="1:22" s="98" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="105">
         <v>43528</v>
       </c>
@@ -23134,7 +23147,7 @@
       <c r="U54" s="89"/>
       <c r="V54" s="89"/>
     </row>
-    <row r="55" spans="1:22" s="89" customFormat="1" ht="33.75" customHeight="1">
+    <row r="55" spans="1:22" s="89" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="86">
         <v>43522</v>
       </c>
@@ -23172,7 +23185,7 @@
       <c r="M55" s="90"/>
       <c r="N55" s="90"/>
     </row>
-    <row r="56" spans="1:22" s="98" customFormat="1" ht="27.75" customHeight="1">
+    <row r="56" spans="1:22" s="98" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="86">
         <v>43528</v>
       </c>
@@ -23219,7 +23232,7 @@
       <c r="U56" s="89"/>
       <c r="V56" s="89"/>
     </row>
-    <row r="57" spans="1:22" s="89" customFormat="1" ht="38.25" customHeight="1">
+    <row r="57" spans="1:22" s="89" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="86">
         <v>43528</v>
       </c>
@@ -23260,7 +23273,7 @@
       <c r="N57" s="90"/>
       <c r="O57" s="98"/>
     </row>
-    <row r="58" spans="1:22" s="98" customFormat="1" ht="27.75" customHeight="1">
+    <row r="58" spans="1:22" s="98" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="86">
         <v>43481</v>
       </c>
@@ -23309,7 +23322,7 @@
       <c r="U58" s="89"/>
       <c r="V58" s="89"/>
     </row>
-    <row r="59" spans="1:22" s="98" customFormat="1" ht="30" customHeight="1">
+    <row r="59" spans="1:22" s="98" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="86">
         <v>43481</v>
       </c>
@@ -23357,7 +23370,7 @@
       <c r="U59" s="89"/>
       <c r="V59" s="89"/>
     </row>
-    <row r="60" spans="1:22" s="89" customFormat="1" ht="29.25" customHeight="1">
+    <row r="60" spans="1:22" s="89" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="105"/>
       <c r="B60" s="105">
         <v>43539</v>
@@ -23397,7 +23410,7 @@
       <c r="U60" s="98"/>
       <c r="V60" s="98"/>
     </row>
-    <row r="61" spans="1:22" s="89" customFormat="1" ht="34.5" customHeight="1">
+    <row r="61" spans="1:22" s="89" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="86">
         <v>43531</v>
       </c>
@@ -23438,7 +23451,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="62" spans="1:22" s="89" customFormat="1" ht="30" customHeight="1">
+    <row r="62" spans="1:22" s="89" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="86">
         <v>43538</v>
       </c>
@@ -23484,7 +23497,7 @@
       <c r="U62" s="98"/>
       <c r="V62" s="98"/>
     </row>
-    <row r="63" spans="1:22" s="95" customFormat="1" ht="36" customHeight="1">
+    <row r="63" spans="1:22" s="95" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="87">
         <v>43538</v>
       </c>
@@ -23529,7 +23542,7 @@
       <c r="U63" s="98"/>
       <c r="V63" s="98"/>
     </row>
-    <row r="64" spans="1:22" s="89" customFormat="1" ht="45" customHeight="1">
+    <row r="64" spans="1:22" s="89" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="86">
         <v>43515</v>
       </c>
@@ -23573,7 +23586,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="65" spans="1:22" s="89" customFormat="1" ht="36.75" customHeight="1">
+    <row r="65" spans="1:22" s="89" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="86">
         <v>43522</v>
       </c>
@@ -23619,7 +23632,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="66" spans="1:22" s="89" customFormat="1" ht="32.25" customHeight="1">
+    <row r="66" spans="1:22" s="89" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="87">
         <v>43530</v>
       </c>
@@ -23673,7 +23686,7 @@
       <c r="U66" s="95"/>
       <c r="V66" s="95"/>
     </row>
-    <row r="67" spans="1:22" s="89" customFormat="1" ht="30" customHeight="1">
+    <row r="67" spans="1:22" s="89" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="86">
         <v>43530</v>
       </c>
@@ -23721,7 +23734,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="68" spans="1:22" s="89" customFormat="1" ht="33.75" customHeight="1">
+    <row r="68" spans="1:22" s="89" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="86">
         <v>43530</v>
       </c>
@@ -23761,7 +23774,7 @@
       <c r="M68" s="90"/>
       <c r="N68" s="90"/>
     </row>
-    <row r="69" spans="1:22" s="89" customFormat="1" ht="30" customHeight="1">
+    <row r="69" spans="1:22" s="89" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="86">
         <v>43517</v>
       </c>
@@ -23799,7 +23812,7 @@
       <c r="M69" s="90"/>
       <c r="N69" s="90"/>
     </row>
-    <row r="70" spans="1:22" s="89" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="70" spans="1:22" s="89" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="86">
         <v>43529</v>
       </c>
@@ -23849,7 +23862,7 @@
       <c r="U70" s="98"/>
       <c r="V70" s="98"/>
     </row>
-    <row r="71" spans="1:22" s="89" customFormat="1" ht="27.75" customHeight="1">
+    <row r="71" spans="1:22" s="89" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="131">
         <v>43516</v>
       </c>
@@ -23888,7 +23901,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="72" spans="1:22" s="89" customFormat="1" ht="34.5" customHeight="1">
+    <row r="72" spans="1:22" s="89" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="105">
         <v>43525</v>
       </c>
@@ -23933,7 +23946,7 @@
       <c r="P72" s="98"/>
       <c r="Q72" s="98"/>
     </row>
-    <row r="73" spans="1:22" s="89" customFormat="1" ht="41.25" customHeight="1">
+    <row r="73" spans="1:22" s="89" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="86">
         <v>43490</v>
       </c>
@@ -23976,7 +23989,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="74" spans="1:22" s="89" customFormat="1" ht="34.5" customHeight="1">
+    <row r="74" spans="1:22" s="89" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="86">
         <v>43535</v>
       </c>
@@ -24019,7 +24032,7 @@
       <c r="N74" s="90"/>
       <c r="O74" s="115"/>
     </row>
-    <row r="75" spans="1:22" s="89" customFormat="1" ht="41.25" customHeight="1">
+    <row r="75" spans="1:22" s="89" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="86">
         <v>43517</v>
       </c>
@@ -24062,7 +24075,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="76" spans="1:22" s="89" customFormat="1" ht="27" customHeight="1">
+    <row r="76" spans="1:22" s="89" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="86">
         <v>43539</v>
       </c>
@@ -24108,7 +24121,7 @@
       <c r="U76" s="98"/>
       <c r="V76" s="98"/>
     </row>
-    <row r="77" spans="1:22" s="89" customFormat="1" ht="34.5" customHeight="1">
+    <row r="77" spans="1:22" s="89" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="86"/>
       <c r="B77" s="87">
         <v>43543</v>
@@ -24146,7 +24159,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="78" spans="1:22" s="95" customFormat="1" ht="36" customHeight="1">
+    <row r="78" spans="1:22" s="95" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="87">
         <v>43500</v>
       </c>
@@ -24191,7 +24204,7 @@
       <c r="U78" s="98"/>
       <c r="V78" s="98"/>
     </row>
-    <row r="79" spans="1:22" s="99" customFormat="1" ht="38.25" customHeight="1">
+    <row r="79" spans="1:22" s="99" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="86">
         <v>43538</v>
       </c>
@@ -24241,7 +24254,7 @@
       <c r="U79" s="89"/>
       <c r="V79" s="89"/>
     </row>
-    <row r="80" spans="1:22" s="89" customFormat="1" ht="28.5" customHeight="1">
+    <row r="80" spans="1:22" s="89" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="86">
         <v>43510</v>
       </c>
@@ -24284,7 +24297,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="81" spans="1:22" s="95" customFormat="1" ht="32.25" customHeight="1">
+    <row r="81" spans="1:22" s="95" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="86">
         <v>43535</v>
       </c>
@@ -24330,7 +24343,7 @@
       <c r="U81" s="89"/>
       <c r="V81" s="89"/>
     </row>
-    <row r="82" spans="1:22" s="89" customFormat="1" ht="32.25" customHeight="1">
+    <row r="82" spans="1:22" s="89" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="87">
         <v>43543</v>
       </c>
@@ -24380,7 +24393,7 @@
       <c r="U82" s="95"/>
       <c r="V82" s="95"/>
     </row>
-    <row r="83" spans="1:22" s="89" customFormat="1" ht="38.25" customHeight="1">
+    <row r="83" spans="1:22" s="89" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="105">
         <v>43531</v>
       </c>
@@ -24429,7 +24442,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="84" spans="1:22" s="89" customFormat="1" ht="34.5" customHeight="1">
+    <row r="84" spans="1:22" s="89" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="86" t="s">
         <v>1215</v>
       </c>
@@ -24472,7 +24485,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="85" spans="1:22" s="89" customFormat="1" ht="34.5" customHeight="1">
+    <row r="85" spans="1:22" s="89" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="86">
         <v>43514</v>
       </c>
@@ -24512,7 +24525,7 @@
       <c r="M85" s="90"/>
       <c r="N85" s="90"/>
     </row>
-    <row r="86" spans="1:22" s="98" customFormat="1" ht="30" customHeight="1">
+    <row r="86" spans="1:22" s="98" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="86">
         <v>43536</v>
       </c>
@@ -24560,7 +24573,7 @@
       <c r="U86" s="89"/>
       <c r="V86" s="89"/>
     </row>
-    <row r="87" spans="1:22" s="89" customFormat="1" ht="30" customHeight="1">
+    <row r="87" spans="1:22" s="89" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="86">
         <v>43536</v>
       </c>
@@ -24603,7 +24616,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="88" spans="1:22" s="89" customFormat="1" ht="34.5" customHeight="1">
+    <row r="88" spans="1:22" s="89" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="86" t="s">
         <v>818</v>
       </c>
@@ -24645,7 +24658,7 @@
       </c>
       <c r="N88" s="90"/>
     </row>
-    <row r="89" spans="1:22" s="89" customFormat="1" ht="34.5" customHeight="1">
+    <row r="89" spans="1:22" s="89" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="86">
         <v>43532</v>
       </c>
@@ -24685,7 +24698,7 @@
       <c r="M89" s="90"/>
       <c r="N89" s="90"/>
     </row>
-    <row r="90" spans="1:22" s="89" customFormat="1" ht="27" customHeight="1">
+    <row r="90" spans="1:22" s="89" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="105">
         <v>43539</v>
       </c>
@@ -24735,7 +24748,7 @@
       <c r="U90" s="98"/>
       <c r="V90" s="98"/>
     </row>
-    <row r="92" spans="1:22" s="89" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="92" spans="1:22" s="89" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="87" t="s">
         <v>90</v>
       </c>
@@ -24776,7 +24789,7 @@
       <c r="N92" s="90"/>
       <c r="O92" s="95"/>
     </row>
-    <row r="93" spans="1:22" s="98" customFormat="1" ht="28.5" customHeight="1">
+    <row r="93" spans="1:22" s="98" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="86">
         <v>43532</v>
       </c>
@@ -24828,7 +24841,7 @@
       <c r="U93" s="89"/>
       <c r="V93" s="89"/>
     </row>
-    <row r="94" spans="1:22" s="89" customFormat="1" ht="26.25" customHeight="1">
+    <row r="94" spans="1:22" s="89" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="105">
         <v>43529</v>
       </c>
@@ -24875,12 +24888,12 @@
       <c r="P94" s="98"/>
       <c r="Q94" s="98"/>
     </row>
-    <row r="95" spans="1:22">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A95" s="173">
         <v>43539</v>
       </c>
     </row>
-    <row r="96" spans="1:22" s="89" customFormat="1" ht="34.5" customHeight="1">
+    <row r="96" spans="1:22" s="89" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="105">
         <v>43539</v>
       </c>
@@ -24925,7 +24938,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="97" spans="1:23" s="89" customFormat="1" ht="34.5" customHeight="1">
+    <row r="97" spans="1:23" s="89" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="86">
         <v>43542</v>
       </c>
@@ -24970,7 +24983,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="98" spans="1:23" s="121" customFormat="1" ht="34.5" customHeight="1">
+    <row r="98" spans="1:23" s="121" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="87">
         <v>43537</v>
       </c>
@@ -25024,7 +25037,7 @@
       <c r="U98" s="89"/>
       <c r="V98" s="89"/>
     </row>
-    <row r="99" spans="1:23" s="89" customFormat="1" ht="45" customHeight="1">
+    <row r="99" spans="1:23" s="89" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="86">
         <v>43537</v>
       </c>
@@ -25067,7 +25080,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="100" spans="1:23" s="98" customFormat="1" ht="31.5" customHeight="1">
+    <row r="100" spans="1:23" s="98" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="86"/>
       <c r="B100" s="86">
         <v>43552</v>
@@ -25111,7 +25124,7 @@
       <c r="U100" s="89"/>
       <c r="V100" s="89"/>
     </row>
-    <row r="101" spans="1:23" s="98" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="101" spans="1:23" s="98" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="86">
         <v>43543</v>
       </c>
@@ -25161,7 +25174,7 @@
       <c r="U101" s="89"/>
       <c r="V101" s="89"/>
     </row>
-    <row r="102" spans="1:23" s="89" customFormat="1" ht="34.5" customHeight="1">
+    <row r="102" spans="1:23" s="89" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="86">
         <v>43543</v>
       </c>
@@ -25208,7 +25221,7 @@
       <c r="U102" s="98"/>
       <c r="V102" s="98"/>
     </row>
-    <row r="103" spans="1:23" s="89" customFormat="1" ht="30" customHeight="1">
+    <row r="103" spans="1:23" s="89" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="105">
         <v>43544</v>
       </c>
@@ -25262,7 +25275,7 @@
       <c r="U103" s="98"/>
       <c r="V103" s="98"/>
     </row>
-    <row r="104" spans="1:23" s="98" customFormat="1" ht="27.75" customHeight="1">
+    <row r="104" spans="1:23" s="98" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="86">
         <v>43539</v>
       </c>
@@ -25312,7 +25325,7 @@
       <c r="U104" s="89"/>
       <c r="V104" s="89"/>
     </row>
-    <row r="105" spans="1:23" s="89" customFormat="1" ht="30" customHeight="1">
+    <row r="105" spans="1:23" s="89" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="86">
         <v>43539</v>
       </c>
@@ -25357,7 +25370,7 @@
       <c r="U105" s="98"/>
       <c r="V105" s="98"/>
     </row>
-    <row r="106" spans="1:23" s="89" customFormat="1" ht="30" customHeight="1">
+    <row r="106" spans="1:23" s="89" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="86">
         <v>43537</v>
       </c>
@@ -25402,7 +25415,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="107" spans="1:23" s="98" customFormat="1" ht="30" customHeight="1">
+    <row r="107" spans="1:23" s="98" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="86">
         <v>43535</v>
       </c>
@@ -25447,7 +25460,7 @@
       <c r="P107" s="89"/>
       <c r="Q107" s="89"/>
     </row>
-    <row r="108" spans="1:23" s="89" customFormat="1" ht="24" customHeight="1">
+    <row r="108" spans="1:23" s="89" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="86">
         <v>43530</v>
       </c>
@@ -25487,7 +25500,7 @@
       <c r="M108" s="90"/>
       <c r="N108" s="90"/>
     </row>
-    <row r="109" spans="1:23" s="89" customFormat="1" ht="45" customHeight="1">
+    <row r="109" spans="1:23" s="89" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="105">
         <v>43528</v>
       </c>
@@ -25531,7 +25544,7 @@
       <c r="Q109" s="98"/>
       <c r="R109" s="98"/>
     </row>
-    <row r="110" spans="1:23" s="89" customFormat="1" ht="34.5" customHeight="1">
+    <row r="110" spans="1:23" s="89" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="131">
         <v>43543</v>
       </c>
@@ -25576,7 +25589,7 @@
       <c r="V110" s="99"/>
       <c r="W110" s="99"/>
     </row>
-    <row r="111" spans="1:23" s="98" customFormat="1" ht="31.5" customHeight="1">
+    <row r="111" spans="1:23" s="98" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="89" t="s">
         <v>1281</v>
       </c>
@@ -25626,7 +25639,7 @@
       <c r="V111" s="89"/>
       <c r="W111" s="89"/>
     </row>
-    <row r="112" spans="1:23" s="89" customFormat="1" ht="30" customHeight="1">
+    <row r="112" spans="1:23" s="89" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="86">
         <v>43549</v>
       </c>
@@ -25674,7 +25687,7 @@
       <c r="V112" s="98"/>
       <c r="W112" s="98"/>
     </row>
-    <row r="113" spans="1:23" s="98" customFormat="1" ht="28.5" customHeight="1">
+    <row r="113" spans="1:23" s="98" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="86">
         <v>43510</v>
       </c>
@@ -25719,7 +25732,7 @@
       <c r="Q113" s="89"/>
       <c r="R113" s="89"/>
     </row>
-    <row r="114" spans="1:23" s="89" customFormat="1" ht="45" customHeight="1">
+    <row r="114" spans="1:23" s="89" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="86">
         <v>43530</v>
       </c>
@@ -25763,7 +25776,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="115" spans="1:23" s="89" customFormat="1" ht="45" customHeight="1">
+    <row r="115" spans="1:23" s="89" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="105">
         <v>43538</v>
       </c>
